--- a/__encodeapk/8个客户.xlsx
+++ b/__encodeapk/8个客户.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/Documents/个人/Project/code/Finance-master-local/__encodeapk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAC8077-8653-0445-81B5-F33B3F545724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A872E764-EAA9-3B4A-84F6-24FBBA1E43AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="11540" windowWidth="30400" windowHeight="16280" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (8)" sheetId="8" r:id="rId1"/>
@@ -23,11 +23,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="83">
   <si>
     <t>姓名</t>
   </si>
@@ -204,10 +212,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>15210849691北京市朝阳区青年路鹅湾小区5号楼3单元401</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>tb5241593005</t>
   </si>
   <si>
@@ -281,6 +285,21 @@
   </si>
   <si>
     <t>tb8659499785</t>
+  </si>
+  <si>
+    <t>15311520495</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15210849691</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市朝阳区青年路鹅湾小区5号楼3单元401</t>
+  </si>
+  <si>
+    <t>15727301584</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -369,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,7 +434,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:S2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -749,22 +771,22 @@
       </c>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -809,23 +831,23 @@
       <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="15">
+        <v>15712917692</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="14">
+      <c r="R2" s="15">
         <v>15712917692</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="S2" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="R2" s="14">
-        <v>15712917692</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2038,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:T2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -2092,22 +2114,22 @@
       </c>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2152,23 +2174,23 @@
       <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="14">
+      <c r="P2" s="15">
         <v>18240150829</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="15">
+        <v>18240150829</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="R2" s="14">
-        <v>18240150829</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3411,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:S2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -3461,22 +3483,22 @@
       </c>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3521,23 +3543,23 @@
       <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="14">
-        <v>15311520495</v>
-      </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="R2" s="14">
-        <v>15311520495</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4777,8 +4799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -4833,22 +4855,22 @@
       </c>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4893,23 +4915,23 @@
       <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="14">
+      <c r="R2" s="15">
         <v>15727301584</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="S2" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="R2" s="14">
-        <v>15727301584</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="17">
@@ -4925,6 +4947,12 @@
       <c r="M3" t="s">
         <v>46</v>
       </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19">
       <c r="J4" s="11"/>
@@ -6108,8 +6136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:S2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -6162,22 +6190,22 @@
       </c>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6222,23 +6250,23 @@
       <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="15">
+        <v>15831629071</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="R2" s="14">
-        <v>15831629071</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6253,6 +6281,12 @@
       <c r="M3" t="s">
         <v>46</v>
       </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19">
       <c r="J4" s="11"/>
@@ -7496,8 +7530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:S2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -7550,22 +7584,22 @@
       </c>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7610,23 +7644,23 @@
       <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="15">
+        <v>13718148904</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="14">
+      <c r="R2" s="15">
         <v>13718148904</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="S2" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="R2" s="14">
-        <v>13718148904</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8943,8 +8977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:S2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -8997,22 +9031,22 @@
       </c>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9057,23 +9091,23 @@
       <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="15">
         <v>13718028714</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="15">
+        <v>13718028714</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="R2" s="14">
-        <v>13718028714</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10253,8 +10287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:S2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -10306,22 +10340,22 @@
       </c>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -10366,20 +10400,23 @@
       <c r="M2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="3">
+        <v>15210849691</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="R2" s="1">
-        <v>15210849691</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:19">

--- a/__encodeapk/8个客户.xlsx
+++ b/__encodeapk/8个客户.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A872E764-EAA9-3B4A-84F6-24FBBA1E43AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5349DFCD-09FD-2A4B-8051-EBDCC86CEF13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (8)" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="91">
   <si>
     <t>姓名</t>
   </si>
@@ -301,6 +301,38 @@
     <t>15727301584</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>晴 19℃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云 18℃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云 22℃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雨 16℃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴 19℃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴 14℃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴 15℃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴 18℃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -310,7 +342,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +391,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -388,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,6 +478,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,8 +760,1353 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1"/>
+    <col min="6" max="10" width="11" style="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="11" style="1"/>
+    <col min="16" max="16" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="1"/>
+    <col min="18" max="18" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="17">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19800</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2376</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2376</v>
+      </c>
+      <c r="J2" s="12">
+        <v>48925.8923</v>
+      </c>
+      <c r="K2" s="13">
+        <v>44098</v>
+      </c>
+      <c r="L2" t="str">
+        <f>TEXT(K2,"yyyy-mm-dd")</f>
+        <v>2020-09-24</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="15">
+        <v>15712917692</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="15">
+        <v>15712917692</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="J3" s="11"/>
+      <c r="K3" s="13">
+        <v>44099</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
+        <v>2020-09-25</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="J4" s="11"/>
+      <c r="K4" s="13">
+        <v>44100</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-26</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="13">
+        <v>44101</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-27</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2020</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="13">
+        <v>44102</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-28</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="4">
+        <v>43851</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4512</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f t="shared" ref="D7:D17" si="1">TEXT(A7,"mm-dd")</f>
+        <v>01-21</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="13">
+        <v>44103</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-29</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="4">
+        <v>43879</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4512</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>02-18</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="13">
+        <v>44104</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09-30</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="4">
+        <v>43906</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4512</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>03-16</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="13">
+        <v>44105</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-10-01</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="4">
+        <v>43937</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4512</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>04-16</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="13">
+        <v>44106</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-10-02</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="4">
+        <v>43966</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4512</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>05-15</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="13">
+        <v>44107</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-10-03</v>
+      </c>
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="4">
+        <v>43997</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4512</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>06-15</v>
+      </c>
+      <c r="E12" s="1">
+        <v>54154</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="13">
+        <v>44108</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-10-04</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="8">
+        <v>44012</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6">
+        <v>812.31</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>06-30</v>
+      </c>
+      <c r="E13" s="1">
+        <v>54966.31</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="13">
+        <v>44109</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-10-05</v>
+      </c>
+      <c r="M13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="4">
+        <v>44034</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4750</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>07-22</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="13">
+        <v>44110</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-10-06</v>
+      </c>
+      <c r="M14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="4">
+        <v>44032</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4500</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>07-20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="4">
+        <v>44061</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4750</v>
+      </c>
+      <c r="D16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>08-18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>44090</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4750</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>09-16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5">
+        <v>43480</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D25" s="7" t="str">
+        <f t="shared" ref="D25:D34" si="2">TEXT(A25,"mm-dd")</f>
+        <v>01-15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5">
+        <v>43511</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D26" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>02-15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5">
+        <v>43539</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D27" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>03-15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5">
+        <v>43570</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D28" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>04-15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5">
+        <v>43607</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>05-22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5">
+        <v>43634</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>06-18</v>
+      </c>
+      <c r="E30" s="1">
+        <v>206815.894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="9">
+        <v>43646</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3102.2384099999999</v>
+      </c>
+      <c r="D31" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>06-30</v>
+      </c>
+      <c r="E31" s="1">
+        <v>209918.13200000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5">
+        <v>43662</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="6">
+        <v>4512</v>
+      </c>
+      <c r="D32" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>07-16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5">
+        <v>43693</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="6">
+        <v>4512</v>
+      </c>
+      <c r="D33" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>08-16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5">
+        <v>43699</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="7">
+        <v>218932.13200000001</v>
+      </c>
+      <c r="D34" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>08-22</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5">
+        <v>43724</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="6">
+        <v>4512</v>
+      </c>
+      <c r="D35" s="7" t="str">
+        <f>TEXT(A35,"mm-dd")</f>
+        <v>09-16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5">
+        <v>43753</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="6">
+        <v>4512</v>
+      </c>
+      <c r="D36" s="7" t="str">
+        <f>TEXT(A36,"mm-dd")</f>
+        <v>10-15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5">
+        <v>43784</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="6">
+        <v>4512</v>
+      </c>
+      <c r="D37" s="7" t="str">
+        <f>TEXT(A37,"mm-dd")</f>
+        <v>11-15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5">
+        <v>43815</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="6">
+        <v>4512</v>
+      </c>
+      <c r="D38" s="7" t="str">
+        <f>TEXT(A38,"mm-dd")</f>
+        <v>12-16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5">
+        <v>43115</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="6">
+        <v>3840</v>
+      </c>
+      <c r="D42" s="7" t="str">
+        <f t="shared" ref="D42:D54" si="3">TEXT(A42,"mm-dd")</f>
+        <v>01-15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5">
+        <v>43153</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="6">
+        <v>3840</v>
+      </c>
+      <c r="D43" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>02-22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5">
+        <v>43179</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="6">
+        <v>3840</v>
+      </c>
+      <c r="D44" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>03-20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="5">
+        <v>43206</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="6">
+        <v>3840</v>
+      </c>
+      <c r="D45" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04-16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="5">
+        <v>43235</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="6">
+        <v>3840</v>
+      </c>
+      <c r="D46" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>05-15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="5">
+        <v>43266</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="6">
+        <v>3840</v>
+      </c>
+      <c r="D47" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>06-15</v>
+      </c>
+      <c r="E47" s="1">
+        <v>152685.60999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="9">
+        <v>43281</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2290.28415</v>
+      </c>
+      <c r="D48" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>06-30</v>
+      </c>
+      <c r="E48" s="1">
+        <v>154975.894</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5">
+        <v>43297</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D49" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>07-16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5">
+        <v>43327</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D50" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>08-15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5">
+        <v>43361</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D51" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>09-18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5">
+        <v>43388</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D52" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>10-15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5">
+        <v>43419</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D53" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>11-15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5">
+        <v>43452</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D54" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>12-18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="7"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="5">
+        <v>42751</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="6">
+        <v>3484</v>
+      </c>
+      <c r="D58" s="7" t="str">
+        <f t="shared" ref="D58:D70" si="4">TEXT(A58,"mm-dd")</f>
+        <v>01-16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="5">
+        <v>42781</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="6">
+        <v>3484</v>
+      </c>
+      <c r="D59" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>02-15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="5">
+        <v>42809</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="6">
+        <v>3484</v>
+      </c>
+      <c r="D60" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>03-15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5">
+        <v>42843</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="6">
+        <v>3484</v>
+      </c>
+      <c r="D61" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>04-18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="5">
+        <v>42873</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="6">
+        <v>3484</v>
+      </c>
+      <c r="D62" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>05-18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="5">
+        <v>42901</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="6">
+        <v>3484</v>
+      </c>
+      <c r="D63" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>06-15</v>
+      </c>
+      <c r="E63" s="1">
+        <v>106286.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="9">
+        <v>42916</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="6">
+        <v>318.86025000000001</v>
+      </c>
+      <c r="D64" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>06-30</v>
+      </c>
+      <c r="E64" s="1">
+        <v>106605.61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="5">
+        <v>42934</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="6">
+        <v>3840</v>
+      </c>
+      <c r="D65" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>07-18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="5">
+        <v>42965</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="6">
+        <v>3840</v>
+      </c>
+      <c r="D66" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>08-18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="5">
+        <v>42993</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="6">
+        <v>3840</v>
+      </c>
+      <c r="D67" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>09-15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="5">
+        <v>43026</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="6">
+        <v>3840</v>
+      </c>
+      <c r="D68" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>10-18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="5">
+        <v>43054</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="6">
+        <v>3840</v>
+      </c>
+      <c r="D69" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>11-15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="5">
+        <v>43085</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="6">
+        <v>3840</v>
+      </c>
+      <c r="D70" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>12-16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="10">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="5">
+        <v>42384</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="6">
+        <v>2560</v>
+      </c>
+      <c r="D74" s="7" t="str">
+        <f t="shared" ref="D74:D86" si="5">TEXT(A74,"mm-dd")</f>
+        <v>01-15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="5">
+        <v>42415</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="6">
+        <v>2560</v>
+      </c>
+      <c r="D75" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>02-15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="5">
+        <v>42444</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="6">
+        <v>2560</v>
+      </c>
+      <c r="D76" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>03-15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="5">
+        <v>42475</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="6">
+        <v>2560</v>
+      </c>
+      <c r="D77" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>04-15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="5">
+        <v>42508</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="6">
+        <v>2560</v>
+      </c>
+      <c r="D78" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>05-18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="5">
+        <v>42536</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="6">
+        <v>2560</v>
+      </c>
+      <c r="D79" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>06-15</v>
+      </c>
+      <c r="E79" s="1">
+        <v>64285.8923</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="9">
+        <v>42551</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="6">
+        <v>192.857677</v>
+      </c>
+      <c r="D80" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>06-30</v>
+      </c>
+      <c r="E80" s="1">
+        <v>64478.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="5">
+        <v>42566</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="6">
+        <v>3484</v>
+      </c>
+      <c r="D81" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>07-15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="5">
+        <v>42600</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="6">
+        <v>3484</v>
+      </c>
+      <c r="D82" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>08-18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="5">
+        <v>42625</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="6">
+        <v>3484</v>
+      </c>
+      <c r="D83" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>09-12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="5">
+        <v>42655</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="6">
+        <v>3484</v>
+      </c>
+      <c r="D84" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>10-12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="5">
+        <v>42689</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="6">
+        <v>3484</v>
+      </c>
+      <c r="D85" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>11-15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="5">
+        <v>42720</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="6">
+        <v>3484</v>
+      </c>
+      <c r="D86" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>12-16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S88"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -792,19 +2180,19 @@
     </row>
     <row r="2" spans="1:19" ht="17">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1">
-        <v>19800</v>
+        <v>25800</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -813,67 +2201,67 @@
         <v>12</v>
       </c>
       <c r="H2" s="1">
-        <v>2376</v>
+        <v>3096</v>
       </c>
       <c r="I2" s="1">
-        <v>2376</v>
+        <v>3096</v>
       </c>
       <c r="J2" s="12">
-        <v>48925.8923</v>
+        <v>27478.337</v>
       </c>
       <c r="K2" s="13">
-        <v>44090</v>
+        <v>44098</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
+        <v>2020-09-24</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="P2" s="15">
-        <v>15712917692</v>
+        <v>18240150829</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="R2" s="15">
-        <v>15712917692</v>
+        <v>18240150829</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44091</v>
+        <v>44099</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
+        <v>2020-09-25</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44092</v>
+        <v>44100</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
+        <v>2020-09-26</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -885,14 +2273,14 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44093</v>
+        <v>44101</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
+        <v>2020-09-27</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -904,14 +2292,14 @@
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="13">
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>46</v>
+        <v>2020-09-28</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -922,22 +2310,22 @@
         <v>16</v>
       </c>
       <c r="C7" s="6">
-        <v>4512</v>
+        <v>5280</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f t="shared" ref="D7:D17" si="1">TEXT(A7,"mm-dd")</f>
+        <f t="shared" ref="D7:D19" si="1">TEXT(A7,"mm-dd")</f>
         <v>01-21</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="13">
-        <v>44095</v>
+        <v>44103</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
+        <v>2020-09-29</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -948,7 +2336,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="6">
-        <v>4512</v>
+        <v>4992</v>
       </c>
       <c r="D8" s="7" t="str">
         <f t="shared" si="1"/>
@@ -956,1357 +2344,14 @@
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="13">
-        <v>44096</v>
+        <v>44104</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="4">
-        <v>43906</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6">
-        <v>4512</v>
-      </c>
-      <c r="D9" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>03-16</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="13">
-        <v>44097</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-23</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="4">
-        <v>43937</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6">
-        <v>4512</v>
-      </c>
-      <c r="D10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>04-16</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="13">
-        <v>44098</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-24</v>
-      </c>
-      <c r="M10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6">
-        <v>4512</v>
-      </c>
-      <c r="D11" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>05-15</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="13">
-        <v>44099</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-25</v>
-      </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="4">
-        <v>43997</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6">
-        <v>4512</v>
-      </c>
-      <c r="D12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>06-15</v>
-      </c>
-      <c r="E12" s="1">
-        <v>54154</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="13">
-        <v>44100</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-26</v>
-      </c>
-      <c r="M12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="8">
-        <v>44012</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="6">
-        <v>812.31</v>
-      </c>
-      <c r="D13" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>06-30</v>
-      </c>
-      <c r="E13" s="1">
-        <v>54966.31</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="13">
-        <v>44101</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-27</v>
-      </c>
-      <c r="M13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="4">
-        <v>44034</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6">
-        <v>4750</v>
-      </c>
-      <c r="D14" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>07-22</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="13">
-        <v>44102</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-28</v>
-      </c>
-      <c r="M14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="4">
-        <v>44032</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="6">
-        <v>4500</v>
-      </c>
-      <c r="D15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>07-20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="4">
-        <v>44061</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="6">
-        <v>4750</v>
-      </c>
-      <c r="D16" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>08-18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>44090</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6">
-        <v>4750</v>
-      </c>
-      <c r="D17" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>09-16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="10">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5">
-        <v>43480</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="6">
-        <v>4320</v>
-      </c>
-      <c r="D25" s="7" t="str">
-        <f t="shared" ref="D25:D34" si="2">TEXT(A25,"mm-dd")</f>
-        <v>01-15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5">
-        <v>43511</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="6">
-        <v>4320</v>
-      </c>
-      <c r="D26" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>02-15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5">
-        <v>43539</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="6">
-        <v>4320</v>
-      </c>
-      <c r="D27" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>03-15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="5">
-        <v>43570</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="6">
-        <v>4320</v>
-      </c>
-      <c r="D28" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>04-15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="5">
-        <v>43607</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="6">
-        <v>4320</v>
-      </c>
-      <c r="D29" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>05-22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="5">
-        <v>43634</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="6">
-        <v>4320</v>
-      </c>
-      <c r="D30" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>06-18</v>
-      </c>
-      <c r="E30" s="1">
-        <v>206815.894</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="9">
-        <v>43646</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="6">
-        <v>3102.2384099999999</v>
-      </c>
-      <c r="D31" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>06-30</v>
-      </c>
-      <c r="E31" s="1">
-        <v>209918.13200000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="5">
-        <v>43662</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="6">
-        <v>4512</v>
-      </c>
-      <c r="D32" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>07-16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="5">
-        <v>43693</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="6">
-        <v>4512</v>
-      </c>
-      <c r="D33" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>08-16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="5">
-        <v>43699</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="7">
-        <v>218932.13200000001</v>
-      </c>
-      <c r="D34" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>08-22</v>
-      </c>
-      <c r="E34" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="5">
-        <v>43724</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="6">
-        <v>4512</v>
-      </c>
-      <c r="D35" s="7" t="str">
-        <f>TEXT(A35,"mm-dd")</f>
-        <v>09-16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="5">
-        <v>43753</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="6">
-        <v>4512</v>
-      </c>
-      <c r="D36" s="7" t="str">
-        <f>TEXT(A36,"mm-dd")</f>
-        <v>10-15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="5">
-        <v>43784</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="6">
-        <v>4512</v>
-      </c>
-      <c r="D37" s="7" t="str">
-        <f>TEXT(A37,"mm-dd")</f>
-        <v>11-15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="5">
-        <v>43815</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="6">
-        <v>4512</v>
-      </c>
-      <c r="D38" s="7" t="str">
-        <f>TEXT(A38,"mm-dd")</f>
-        <v>12-16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="10">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="5">
-        <v>43115</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="6">
-        <v>3840</v>
-      </c>
-      <c r="D42" s="7" t="str">
-        <f t="shared" ref="D42:D54" si="3">TEXT(A42,"mm-dd")</f>
-        <v>01-15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="5">
-        <v>43153</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="6">
-        <v>3840</v>
-      </c>
-      <c r="D43" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>02-22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="5">
-        <v>43179</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="6">
-        <v>3840</v>
-      </c>
-      <c r="D44" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>03-20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="5">
-        <v>43206</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="6">
-        <v>3840</v>
-      </c>
-      <c r="D45" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>04-16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="5">
-        <v>43235</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="6">
-        <v>3840</v>
-      </c>
-      <c r="D46" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>05-15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="5">
-        <v>43266</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="6">
-        <v>3840</v>
-      </c>
-      <c r="D47" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>06-15</v>
-      </c>
-      <c r="E47" s="1">
-        <v>152685.60999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="9">
-        <v>43281</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="6">
-        <v>2290.28415</v>
-      </c>
-      <c r="D48" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>06-30</v>
-      </c>
-      <c r="E48" s="1">
-        <v>154975.894</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="5">
-        <v>43297</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="6">
-        <v>4320</v>
-      </c>
-      <c r="D49" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>07-16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="5">
-        <v>43327</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="6">
-        <v>4320</v>
-      </c>
-      <c r="D50" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>08-15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="5">
-        <v>43361</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="6">
-        <v>4320</v>
-      </c>
-      <c r="D51" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>09-18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="5">
-        <v>43388</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="6">
-        <v>4320</v>
-      </c>
-      <c r="D52" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>10-15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="5">
-        <v>43419</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="6">
-        <v>4320</v>
-      </c>
-      <c r="D53" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>11-15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="5">
-        <v>43452</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="6">
-        <v>4320</v>
-      </c>
-      <c r="D54" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>12-18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="7"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="5">
-        <v>42751</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D58" s="7" t="str">
-        <f t="shared" ref="D58:D70" si="4">TEXT(A58,"mm-dd")</f>
-        <v>01-16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="5">
-        <v>42781</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D59" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>02-15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="5">
-        <v>42809</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D60" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>03-15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="5">
-        <v>42843</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D61" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>04-18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="5">
-        <v>42873</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D62" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>05-18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="5">
-        <v>42901</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D63" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>06-15</v>
-      </c>
-      <c r="E63" s="1">
-        <v>106286.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="9">
-        <v>42916</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="6">
-        <v>318.86025000000001</v>
-      </c>
-      <c r="D64" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>06-30</v>
-      </c>
-      <c r="E64" s="1">
-        <v>106605.61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="5">
-        <v>42934</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="6">
-        <v>3840</v>
-      </c>
-      <c r="D65" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>07-18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="5">
-        <v>42965</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="6">
-        <v>3840</v>
-      </c>
-      <c r="D66" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>08-18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="5">
-        <v>42993</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="6">
-        <v>3840</v>
-      </c>
-      <c r="D67" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>09-15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="5">
-        <v>43026</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="6">
-        <v>3840</v>
-      </c>
-      <c r="D68" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>10-18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="5">
-        <v>43054</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="6">
-        <v>3840</v>
-      </c>
-      <c r="D69" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>11-15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="5">
-        <v>43085</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="6">
-        <v>3840</v>
-      </c>
-      <c r="D70" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>12-16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="10">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="5">
-        <v>42384</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="6">
-        <v>2560</v>
-      </c>
-      <c r="D74" s="7" t="str">
-        <f t="shared" ref="D74:D86" si="5">TEXT(A74,"mm-dd")</f>
-        <v>01-15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="5">
-        <v>42415</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="6">
-        <v>2560</v>
-      </c>
-      <c r="D75" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>02-15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="5">
-        <v>42444</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="6">
-        <v>2560</v>
-      </c>
-      <c r="D76" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>03-15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="5">
-        <v>42475</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="6">
-        <v>2560</v>
-      </c>
-      <c r="D77" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>04-15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="5">
-        <v>42508</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="6">
-        <v>2560</v>
-      </c>
-      <c r="D78" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>05-18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="5">
-        <v>42536</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="6">
-        <v>2560</v>
-      </c>
-      <c r="D79" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>06-15</v>
-      </c>
-      <c r="E79" s="1">
-        <v>64285.8923</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="9">
-        <v>42551</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="6">
-        <v>192.857677</v>
-      </c>
-      <c r="D80" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>06-30</v>
-      </c>
-      <c r="E80" s="1">
-        <v>64478.75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="5">
-        <v>42566</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D81" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>07-15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="5">
-        <v>42600</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D82" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>08-18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="5">
-        <v>42625</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D83" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>09-12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="5">
-        <v>42655</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D84" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>10-12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="5">
-        <v>42689</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D85" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>11-15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="5">
-        <v>42720</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D86" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>12-16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S88"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1"/>
-    <col min="6" max="15" width="11" style="1"/>
-    <col min="16" max="16" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" style="1"/>
-    <col min="18" max="18" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="17">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="17">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1">
-        <v>25800</v>
-      </c>
-      <c r="F2" s="1">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3096</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3096</v>
-      </c>
-      <c r="J2" s="12">
-        <v>27478.337</v>
-      </c>
-      <c r="K2" s="13">
-        <v>44090</v>
-      </c>
-      <c r="L2" t="str">
-        <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="15">
-        <v>18240150829</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="15">
-        <v>18240150829</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="J3" s="11"/>
-      <c r="K3" s="13">
-        <v>44091</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="J4" s="11"/>
-      <c r="K4" s="13">
-        <v>44092</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="13">
-        <v>44093</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2020</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="13">
-        <v>44094</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="4">
-        <v>43851</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6">
-        <v>5280</v>
-      </c>
-      <c r="D7" s="7" t="str">
-        <f t="shared" ref="D7:D19" si="1">TEXT(A7,"mm-dd")</f>
-        <v>01-21</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="13">
-        <v>44095</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="4">
-        <v>43879</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4992</v>
-      </c>
-      <c r="D8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>02-18</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="13">
-        <v>44096</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
+        <v>2020-09-30</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2325,14 +2370,14 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="13">
-        <v>44097</v>
+        <v>44105</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-23</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
+        <v>2020-10-01</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2351,14 +2396,14 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="13">
-        <v>44098</v>
+        <v>44106</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-24</v>
-      </c>
-      <c r="M10" t="s">
-        <v>46</v>
+        <v>2020-10-02</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2377,11 +2422,11 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="13">
-        <v>44099</v>
+        <v>44107</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-25</v>
+        <v>2020-10-03</v>
       </c>
       <c r="M11" t="s">
         <v>46</v>
@@ -2403,11 +2448,11 @@
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="13">
-        <v>44100</v>
+        <v>44108</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-04</v>
       </c>
       <c r="M12" t="s">
         <v>46</v>
@@ -2429,11 +2474,11 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="13">
-        <v>44101</v>
+        <v>44109</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-05</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -2458,11 +2503,11 @@
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="13">
-        <v>44102</v>
+        <v>44110</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-28</v>
+        <v>2020-10-06</v>
       </c>
       <c r="M14" t="s">
         <v>46</v>
@@ -3434,7 +3479,7 @@
   <dimension ref="A1:S88"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="K1" sqref="K1:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -3534,14 +3579,14 @@
         <v>16238.4247</v>
       </c>
       <c r="K2" s="13">
-        <v>44090</v>
+        <v>44098</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
+        <v>2020-09-24</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>71</v>
@@ -3565,27 +3610,27 @@
     <row r="3" spans="1:19">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44091</v>
+        <v>44099</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
+        <v>2020-09-25</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44092</v>
+        <v>44100</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
+        <v>2020-09-26</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3597,14 +3642,14 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44093</v>
+        <v>44101</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
+        <v>2020-09-27</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3616,14 +3661,14 @@
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="13">
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>46</v>
+        <v>2020-09-28</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3642,14 +3687,14 @@
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="13">
-        <v>44095</v>
+        <v>44103</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
+        <v>2020-09-29</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3668,14 +3713,14 @@
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="13">
-        <v>44096</v>
+        <v>44104</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
+        <v>2020-09-30</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -3694,14 +3739,14 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="13">
-        <v>44097</v>
+        <v>44105</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-23</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
+        <v>2020-10-01</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -3720,14 +3765,14 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="13">
-        <v>44098</v>
+        <v>44106</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-24</v>
-      </c>
-      <c r="M10" t="s">
-        <v>46</v>
+        <v>2020-10-02</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -3746,11 +3791,11 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="13">
-        <v>44099</v>
+        <v>44107</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-25</v>
+        <v>2020-10-03</v>
       </c>
       <c r="M11" t="s">
         <v>46</v>
@@ -3775,11 +3820,11 @@
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="13">
-        <v>44100</v>
+        <v>44108</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-04</v>
       </c>
       <c r="M12" t="s">
         <v>46</v>
@@ -3804,11 +3849,11 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="13">
-        <v>44101</v>
+        <v>44109</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-05</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -3830,11 +3875,11 @@
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="13">
-        <v>44102</v>
+        <v>44110</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-28</v>
+        <v>2020-10-06</v>
       </c>
       <c r="M14" t="s">
         <v>46</v>
@@ -4800,7 +4845,7 @@
   <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="K1" sqref="K1:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -4906,14 +4951,14 @@
         <v>38052.735800000002</v>
       </c>
       <c r="K2" s="13">
-        <v>44090</v>
+        <v>44098</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
+        <v>2020-09-24</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>76</v>
@@ -4938,14 +4983,14 @@
       <c r="C3" s="14"/>
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44091</v>
+        <v>44099</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
+        <v>2020-09-25</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -4957,14 +5002,14 @@
     <row r="4" spans="1:19">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44092</v>
+        <v>44100</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
+        <v>2020-09-26</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4976,14 +5021,14 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44093</v>
+        <v>44101</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
+        <v>2020-09-27</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4995,14 +5040,14 @@
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="13">
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>46</v>
+        <v>2020-09-28</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5021,14 +5066,14 @@
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="13">
-        <v>44095</v>
+        <v>44103</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
+        <v>2020-09-29</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5047,14 +5092,14 @@
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="13">
-        <v>44096</v>
+        <v>44104</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
+        <v>2020-09-30</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -5073,14 +5118,14 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="13">
-        <v>44097</v>
+        <v>44105</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-23</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
+        <v>2020-10-01</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -5099,14 +5144,14 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="13">
-        <v>44098</v>
+        <v>44106</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-24</v>
-      </c>
-      <c r="M10" t="s">
-        <v>46</v>
+        <v>2020-10-02</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -5125,11 +5170,11 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="13">
-        <v>44099</v>
+        <v>44107</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-25</v>
+        <v>2020-10-03</v>
       </c>
       <c r="M11" t="s">
         <v>46</v>
@@ -5154,11 +5199,11 @@
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="13">
-        <v>44100</v>
+        <v>44108</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-04</v>
       </c>
       <c r="M12" t="s">
         <v>46</v>
@@ -5183,11 +5228,11 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="13">
-        <v>44101</v>
+        <v>44109</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-05</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -5209,11 +5254,11 @@
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="13">
-        <v>44102</v>
+        <v>44110</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-28</v>
+        <v>2020-10-06</v>
       </c>
       <c r="M14" t="s">
         <v>46</v>
@@ -6137,7 +6182,7 @@
   <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="K1" sqref="K1:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -6241,14 +6286,14 @@
         <v>9452.4027999999998</v>
       </c>
       <c r="K2" s="13">
-        <v>44090</v>
+        <v>44098</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
+        <v>2020-09-24</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>57</v>
@@ -6272,14 +6317,14 @@
     <row r="3" spans="1:19">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44091</v>
+        <v>44099</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
+        <v>2020-09-25</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -6291,14 +6336,14 @@
     <row r="4" spans="1:19">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44092</v>
+        <v>44100</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
+        <v>2020-09-26</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6310,14 +6355,14 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44093</v>
+        <v>44101</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
+        <v>2020-09-27</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6329,14 +6374,14 @@
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="13">
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>46</v>
+        <v>2020-09-28</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -6355,14 +6400,14 @@
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="13">
-        <v>44095</v>
+        <v>44103</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
+        <v>2020-09-29</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6381,14 +6426,14 @@
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="13">
-        <v>44096</v>
+        <v>44104</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
+        <v>2020-09-30</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6407,14 +6452,14 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="13">
-        <v>44097</v>
+        <v>44105</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-23</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
+        <v>2020-10-01</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6433,14 +6478,14 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="13">
-        <v>44098</v>
+        <v>44106</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-24</v>
-      </c>
-      <c r="M10" t="s">
-        <v>46</v>
+        <v>2020-10-02</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6459,11 +6504,11 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="13">
-        <v>44099</v>
+        <v>44107</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-25</v>
+        <v>2020-10-03</v>
       </c>
       <c r="M11" t="s">
         <v>46</v>
@@ -6485,11 +6530,11 @@
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="13">
-        <v>44100</v>
+        <v>44108</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-04</v>
       </c>
       <c r="M12" t="s">
         <v>46</v>
@@ -6511,11 +6556,11 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="13">
-        <v>44101</v>
+        <v>44109</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-05</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -6540,11 +6585,11 @@
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="13">
-        <v>44102</v>
+        <v>44110</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-28</v>
+        <v>2020-10-06</v>
       </c>
       <c r="M14" t="s">
         <v>46</v>
@@ -7531,7 +7576,7 @@
   <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="K1" sqref="K1:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -7635,14 +7680,14 @@
         <v>6356.4825999999994</v>
       </c>
       <c r="K2" s="13">
-        <v>44090</v>
+        <v>44098</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
+        <v>2020-09-24</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>68</v>
@@ -7666,27 +7711,27 @@
     <row r="3" spans="1:19">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44091</v>
+        <v>44099</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
+        <v>2020-09-25</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44092</v>
+        <v>44100</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
+        <v>2020-09-26</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7698,14 +7743,14 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44093</v>
+        <v>44101</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
+        <v>2020-09-27</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7717,14 +7762,14 @@
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="13">
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>46</v>
+        <v>2020-09-28</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -7743,14 +7788,14 @@
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="13">
-        <v>44095</v>
+        <v>44103</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
+        <v>2020-09-29</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -7769,14 +7814,14 @@
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="13">
-        <v>44096</v>
+        <v>44104</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
+        <v>2020-09-30</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7795,14 +7840,14 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="13">
-        <v>44097</v>
+        <v>44105</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-23</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
+        <v>2020-10-01</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7821,14 +7866,14 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="13">
-        <v>44098</v>
+        <v>44106</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-24</v>
-      </c>
-      <c r="M10" t="s">
-        <v>46</v>
+        <v>2020-10-02</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7847,11 +7892,11 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="13">
-        <v>44099</v>
+        <v>44107</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-25</v>
+        <v>2020-10-03</v>
       </c>
       <c r="M11" t="s">
         <v>46</v>
@@ -7873,11 +7918,11 @@
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="13">
-        <v>44100</v>
+        <v>44108</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-04</v>
       </c>
       <c r="M12" t="s">
         <v>46</v>
@@ -7899,11 +7944,11 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="13">
-        <v>44101</v>
+        <v>44109</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-05</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -7928,11 +7973,11 @@
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="13">
-        <v>44102</v>
+        <v>44110</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-28</v>
+        <v>2020-10-06</v>
       </c>
       <c r="M14" t="s">
         <v>46</v>
@@ -8978,7 +9023,7 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="K1" sqref="K1:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -9082,14 +9127,14 @@
         <v>5391.0627999999997</v>
       </c>
       <c r="K2" s="13">
-        <v>44090</v>
+        <v>44098</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
+        <v>2020-09-24</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>37</v>
@@ -9113,27 +9158,27 @@
     <row r="3" spans="1:19">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44091</v>
+        <v>44099</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
+        <v>2020-09-25</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44092</v>
+        <v>44100</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
+        <v>2020-09-26</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -9145,14 +9190,14 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44093</v>
+        <v>44101</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
+        <v>2020-09-27</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -9164,14 +9209,14 @@
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="13">
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>46</v>
+        <v>2020-09-28</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -9190,14 +9235,14 @@
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="13">
-        <v>44095</v>
+        <v>44103</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
+        <v>2020-09-29</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -9216,14 +9261,14 @@
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="13">
-        <v>44096</v>
+        <v>44104</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
+        <v>2020-09-30</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -9242,14 +9287,14 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="13">
-        <v>44097</v>
+        <v>44105</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-23</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
+        <v>2020-10-01</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -9268,14 +9313,14 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="13">
-        <v>44098</v>
+        <v>44106</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-24</v>
-      </c>
-      <c r="M10" t="s">
-        <v>46</v>
+        <v>2020-10-02</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -9294,11 +9339,11 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="13">
-        <v>44099</v>
+        <v>44107</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-25</v>
+        <v>2020-10-03</v>
       </c>
       <c r="M11" t="s">
         <v>46</v>
@@ -9323,11 +9368,11 @@
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="13">
-        <v>44100</v>
+        <v>44108</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-04</v>
       </c>
       <c r="M12" t="s">
         <v>46</v>
@@ -9352,11 +9397,11 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="13">
-        <v>44101</v>
+        <v>44109</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-05</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -9378,11 +9423,11 @@
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="13">
-        <v>44102</v>
+        <v>44110</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-28</v>
+        <v>2020-10-06</v>
       </c>
       <c r="M14" t="s">
         <v>46</v>
@@ -10287,8 +10332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -10391,14 +10436,14 @@
         <v>7466.4406999999992</v>
       </c>
       <c r="K2" s="13">
-        <v>44090</v>
+        <v>44098</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
+        <v>2020-09-24</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>55</v>
@@ -10422,27 +10467,27 @@
     <row r="3" spans="1:19">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44091</v>
+        <v>44099</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
+        <v>2020-09-25</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44092</v>
+        <v>44100</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
+        <v>2020-09-26</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10454,14 +10499,14 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44093</v>
+        <v>44101</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
+        <v>2020-09-27</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10473,14 +10518,14 @@
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="13">
-        <v>44094</v>
+        <v>44102</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>46</v>
+        <v>2020-09-28</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -10499,14 +10544,14 @@
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="13">
-        <v>44095</v>
+        <v>44103</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
+        <v>2020-09-29</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -10525,14 +10570,14 @@
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="13">
-        <v>44096</v>
+        <v>44104</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
+        <v>2020-09-30</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -10551,14 +10596,14 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="13">
-        <v>44097</v>
+        <v>44105</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-23</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
+        <v>2020-10-01</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -10577,14 +10622,14 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="13">
-        <v>44098</v>
+        <v>44106</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-24</v>
-      </c>
-      <c r="M10" t="s">
-        <v>46</v>
+        <v>2020-10-02</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -10603,11 +10648,11 @@
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="13">
-        <v>44099</v>
+        <v>44107</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-25</v>
+        <v>2020-10-03</v>
       </c>
       <c r="M11" t="s">
         <v>46</v>
@@ -10632,11 +10677,11 @@
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="13">
-        <v>44100</v>
+        <v>44108</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-04</v>
       </c>
       <c r="M12" t="s">
         <v>46</v>
@@ -10661,11 +10706,11 @@
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="13">
-        <v>44101</v>
+        <v>44109</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-05</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -10687,11 +10732,11 @@
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="13">
-        <v>44102</v>
+        <v>44110</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-28</v>
+        <v>2020-10-06</v>
       </c>
       <c r="M14" t="s">
         <v>46</v>

--- a/__encodeapk/8个客户.xlsx
+++ b/__encodeapk/8个客户.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/Documents/个人/Project/code/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5349DFCD-09FD-2A4B-8051-EBDCC86CEF13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37784540-59B0-AF41-9657-EDC755368324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="12700" windowWidth="22200" windowHeight="8940" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (8)" sheetId="8" r:id="rId1"/>
@@ -23,19 +23,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="93">
   <si>
     <t>姓名</t>
   </si>
@@ -332,6 +324,14 @@
   <si>
     <t>阴 18℃</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -758,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M14"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -780,7 +780,7 @@
     <col min="19" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17">
+    <row r="1" spans="1:20" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -834,8 +834,11 @@
       <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="17">
+      <c r="T1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -894,8 +897,11 @@
       <c r="S2" s="15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
         <v>44099</v>
@@ -908,7 +914,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
         <v>44100</v>
@@ -921,7 +927,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -940,7 +946,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -959,7 +965,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>43851</v>
       </c>
@@ -985,7 +991,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>43879</v>
       </c>
@@ -1011,7 +1017,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>43906</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>43937</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>43966</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>43997</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="8">
         <v>44012</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>44034</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="4">
         <v>44032</v>
       </c>
@@ -1188,7 +1194,7 @@
         <v>07-20</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="4">
         <v>44061</v>
       </c>
@@ -2103,10 +2109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S88"/>
+  <dimension ref="A1:T88"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M14"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -2123,7 +2129,7 @@
     <col min="19" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17">
+    <row r="1" spans="1:20" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2177,8 +2183,11 @@
       <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="17">
+      <c r="T1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2237,8 +2246,11 @@
       <c r="S2" s="15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
         <v>44099</v>
@@ -2251,7 +2263,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
         <v>44100</v>
@@ -2264,7 +2276,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2283,7 +2295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2302,7 +2314,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>43851</v>
       </c>
@@ -2328,7 +2340,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>43879</v>
       </c>
@@ -2354,7 +2366,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>43881</v>
       </c>
@@ -2380,7 +2392,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>43906</v>
       </c>
@@ -2406,7 +2418,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>43937</v>
       </c>
@@ -2432,7 +2444,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>43966</v>
       </c>
@@ -2458,7 +2470,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="4">
         <v>43972</v>
       </c>
@@ -2484,7 +2496,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>43998</v>
       </c>
@@ -2513,7 +2525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="8">
         <v>44012</v>
       </c>
@@ -2531,7 +2543,7 @@
         <v>95856.183799999999</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="4">
         <v>44032</v>
       </c>
@@ -3476,10 +3488,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S88"/>
+  <dimension ref="A1:T88"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M14"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -3492,7 +3504,7 @@
     <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17">
+    <row r="1" spans="1:20" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3546,8 +3558,11 @@
       <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="17">
+      <c r="T1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3606,8 +3621,11 @@
       <c r="S2" s="15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
         <v>44099</v>
@@ -3620,7 +3638,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
         <v>44100</v>
@@ -3633,7 +3651,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3652,7 +3670,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3671,7 +3689,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>43840</v>
       </c>
@@ -3697,7 +3715,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>43871</v>
       </c>
@@ -3723,7 +3741,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>43901</v>
       </c>
@@ -3749,7 +3767,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>43934</v>
       </c>
@@ -3775,7 +3793,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>43962</v>
       </c>
@@ -3801,7 +3819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>43992</v>
       </c>
@@ -3830,7 +3848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="8">
         <v>44012</v>
       </c>
@@ -3859,7 +3877,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>44022</v>
       </c>
@@ -3885,7 +3903,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="4">
         <v>44054</v>
       </c>
@@ -3900,7 +3918,7 @@
         <v>08-11</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="4">
         <v>44085</v>
       </c>
@@ -4842,10 +4860,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M14"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -4864,7 +4882,7 @@
     <col min="20" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17">
+    <row r="1" spans="1:20" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4918,8 +4936,11 @@
       <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="17">
+      <c r="T1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17">
       <c r="A2" s="14" t="s">
         <v>47</v>
       </c>
@@ -4978,8 +4999,11 @@
       <c r="S2" s="15" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="17">
+      <c r="T2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17">
       <c r="C3" s="14"/>
       <c r="J3" s="11"/>
       <c r="K3" s="13">
@@ -4999,7 +5023,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
         <v>44100</v>
@@ -5012,7 +5036,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -5031,7 +5055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -5050,7 +5074,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>43845</v>
       </c>
@@ -5076,7 +5100,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>43879</v>
       </c>
@@ -5102,7 +5126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>43906</v>
       </c>
@@ -5128,7 +5152,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>43937</v>
       </c>
@@ -5154,7 +5178,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>43966</v>
       </c>
@@ -5180,7 +5204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>43997</v>
       </c>
@@ -5209,7 +5233,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="8">
         <v>44012</v>
       </c>
@@ -5238,7 +5262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>44028</v>
       </c>
@@ -5264,7 +5288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="4">
         <v>44061</v>
       </c>
@@ -5279,7 +5303,7 @@
         <v>08-18</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="4">
         <v>44090</v>
       </c>
@@ -6179,10 +6203,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:S89"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M14"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -6199,7 +6223,7 @@
     <col min="20" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17">
+    <row r="1" spans="1:20" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6253,8 +6277,11 @@
       <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="17">
+      <c r="T1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -6313,8 +6340,11 @@
       <c r="S2" s="15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
         <v>44099</v>
@@ -6333,7 +6363,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
         <v>44100</v>
@@ -6346,7 +6376,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -6365,7 +6395,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -6384,7 +6414,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>43848</v>
       </c>
@@ -6410,7 +6440,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>43878</v>
       </c>
@@ -6436,7 +6466,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>43879</v>
       </c>
@@ -6462,7 +6492,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>43905</v>
       </c>
@@ -6488,7 +6518,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>43937</v>
       </c>
@@ -6514,7 +6544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>43966</v>
       </c>
@@ -6540,7 +6570,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="4">
         <v>43968</v>
       </c>
@@ -6566,7 +6596,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>43997</v>
       </c>
@@ -6595,7 +6625,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="8">
         <v>44012</v>
       </c>
@@ -6613,7 +6643,7 @@
         <v>60333.091999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="4">
         <v>44030</v>
       </c>
@@ -7573,10 +7603,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M14"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -7593,7 +7623,7 @@
     <col min="19" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17">
+    <row r="1" spans="1:20" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7647,8 +7677,11 @@
       <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="17">
+      <c r="T1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -7707,8 +7740,11 @@
       <c r="S2" s="15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
         <v>44099</v>
@@ -7721,7 +7757,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
         <v>44100</v>
@@ -7734,7 +7770,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -7753,7 +7789,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -7772,7 +7808,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>43846</v>
       </c>
@@ -7798,7 +7834,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>43850</v>
       </c>
@@ -7824,7 +7860,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>43879</v>
       </c>
@@ -7850,7 +7886,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>43906</v>
       </c>
@@ -7876,7 +7912,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>43937</v>
       </c>
@@ -7902,7 +7938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>43942</v>
       </c>
@@ -7928,7 +7964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="4">
         <v>43966</v>
       </c>
@@ -7954,7 +7990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>43997</v>
       </c>
@@ -7983,7 +8019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="8">
         <v>44012</v>
       </c>
@@ -8001,7 +8037,7 @@
         <v>147440.478</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="4">
         <v>44028</v>
       </c>
@@ -9020,10 +9056,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:S84"/>
+  <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M14"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -9040,7 +9076,7 @@
     <col min="19" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17">
+    <row r="1" spans="1:20" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9094,8 +9130,11 @@
       <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="17">
+      <c r="T1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -9154,8 +9193,11 @@
       <c r="S2" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
         <v>44099</v>
@@ -9168,7 +9210,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
         <v>44100</v>
@@ -9181,7 +9223,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -9200,7 +9242,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -9219,7 +9261,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>43845</v>
       </c>
@@ -9245,7 +9287,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>43879</v>
       </c>
@@ -9271,7 +9313,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>43906</v>
       </c>
@@ -9297,7 +9339,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>43937</v>
       </c>
@@ -9323,7 +9365,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>43969</v>
       </c>
@@ -9349,7 +9391,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>43997</v>
       </c>
@@ -9378,7 +9420,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="8">
         <v>44012</v>
       </c>
@@ -9407,7 +9449,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>44027</v>
       </c>
@@ -9433,7 +9475,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="4">
         <v>44061</v>
       </c>
@@ -9448,7 +9490,7 @@
         <v>08-18</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="4">
         <v>44089</v>
       </c>
@@ -10330,10 +10372,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:S87"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -10349,7 +10391,7 @@
     <col min="20" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17">
+    <row r="1" spans="1:20" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10403,8 +10445,11 @@
       <c r="S1" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="17">
+      <c r="T1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -10463,8 +10508,11 @@
       <c r="S2" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
         <v>44099</v>
@@ -10477,7 +10525,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
         <v>44100</v>
@@ -10490,7 +10538,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -10509,7 +10557,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -10528,7 +10576,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>43852</v>
       </c>
@@ -10554,7 +10602,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>43879</v>
       </c>
@@ -10580,7 +10628,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>43908</v>
       </c>
@@ -10606,7 +10654,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>43937</v>
       </c>
@@ -10632,7 +10680,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>43966</v>
       </c>
@@ -10658,7 +10706,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>43997</v>
       </c>
@@ -10687,7 +10735,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="8">
         <v>44012</v>
       </c>
@@ -10716,7 +10764,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>44028</v>
       </c>
@@ -10742,7 +10790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="4">
         <v>44032</v>
       </c>
@@ -10760,7 +10808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="4">
         <v>44063</v>
       </c>

--- a/__encodeapk/8个客户.xlsx
+++ b/__encodeapk/8个客户.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/Documents/个人/Project/code/Finance-master-local/__encodeapk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3562755E-8005-6C40-A2C9-E936E58208B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE8B72B-BC96-B04E-9B27-DF6818FD287D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="11840" windowWidth="22480" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="9960" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="庄旭叶" sheetId="8" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="37">
   <si>
     <t>姓名</t>
   </si>
@@ -85,46 +93,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>晴 27℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>北方人</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>晴 19℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>多云 18℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>多云 22℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小雨 16℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴 19℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴 14℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴 15℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴 18℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>性别</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -170,6 +142,22 @@
   </si>
   <si>
     <t>庄旭叶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云 14-26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云 11-18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云 10-20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴 11-23</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -605,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -664,27 +652,27 @@
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -714,58 +702,58 @@
         <v>48925.8923</v>
       </c>
       <c r="K2" s="13">
-        <v>44098</v>
+        <v>44102</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-24</v>
+        <v>2020-09-28</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="1">
+        <v>24</v>
+      </c>
+      <c r="O2" s="3">
         <v>2121</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="1">
+        <v>30</v>
+      </c>
+      <c r="S2" s="3">
         <v>3231123</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44099</v>
+        <v>44103</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-25</v>
+        <v>2020-09-29</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44100</v>
+        <v>44104</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-09-30</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -776,18 +764,18 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44101</v>
+        <v>44105</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-01</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -798,16 +786,9 @@
         <v>2020</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="13">
-        <v>44102</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-28</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="K6" s="13"/>
+      <c r="L6"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="4">
@@ -824,19 +805,12 @@
         <v>01-21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="13">
-        <v>44103</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-29</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="K7" s="13"/>
+      <c r="L7"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="4">
@@ -853,19 +827,12 @@
         <v>02-18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="13">
-        <v>44104</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-30</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="K8" s="13"/>
+      <c r="L8"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="4">
@@ -882,19 +849,12 @@
         <v>03-16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="13">
-        <v>44105</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-01</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="K9" s="13"/>
+      <c r="L9"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="4">
@@ -911,19 +871,12 @@
         <v>04-16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="13">
-        <v>44106</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-02</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="K10" s="13"/>
+      <c r="L10"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="4">
@@ -940,19 +893,12 @@
         <v>05-15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="13">
-        <v>44107</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-03</v>
-      </c>
-      <c r="M11" t="s">
-        <v>20</v>
-      </c>
+      <c r="K11" s="13"/>
+      <c r="L11"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="4">
@@ -969,22 +915,15 @@
         <v>06-15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1">
         <v>54154</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="13">
-        <v>44108</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-04</v>
-      </c>
-      <c r="M12" t="s">
-        <v>20</v>
-      </c>
+      <c r="K12" s="13"/>
+      <c r="L12"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="8">
@@ -1001,22 +940,15 @@
         <v>06-30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1">
         <v>54966.31</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="13">
-        <v>44109</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-05</v>
-      </c>
-      <c r="M13" t="s">
-        <v>20</v>
-      </c>
+      <c r="K13" s="13"/>
+      <c r="L13"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4">
@@ -1033,19 +965,12 @@
         <v>07-22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="13">
-        <v>44110</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-06</v>
-      </c>
-      <c r="M14" t="s">
-        <v>20</v>
-      </c>
+      <c r="K14" s="13"/>
+      <c r="L14"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="4">
@@ -1062,7 +987,7 @@
         <v>07-20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1080,7 +1005,7 @@
         <v>08-18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1098,7 +1023,7 @@
         <v>09-16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1142,7 +1067,7 @@
         <v>01-15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1160,7 +1085,7 @@
         <v>02-15</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1178,7 +1103,7 @@
         <v>03-15</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1196,7 +1121,7 @@
         <v>04-15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1214,7 +1139,7 @@
         <v>05-22</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1232,7 +1157,7 @@
         <v>06-18</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F30" s="1">
         <v>206815.894</v>
@@ -1253,7 +1178,7 @@
         <v>06-30</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F31" s="1">
         <v>209918.13200000001</v>
@@ -1274,7 +1199,7 @@
         <v>07-16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1292,7 +1217,7 @@
         <v>08-16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1310,7 +1235,7 @@
         <v>08-22</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F34" s="1">
         <v>10</v>
@@ -1331,7 +1256,7 @@
         <v>09-16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1349,7 +1274,7 @@
         <v>10-15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1367,7 +1292,7 @@
         <v>11-15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1385,7 +1310,7 @@
         <v>12-16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1411,7 +1336,7 @@
         <v>01-15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1429,7 +1354,7 @@
         <v>02-22</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1447,7 +1372,7 @@
         <v>03-20</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1465,7 +1390,7 @@
         <v>04-16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1483,7 +1408,7 @@
         <v>05-15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1501,7 +1426,7 @@
         <v>06-15</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F47" s="1">
         <v>152685.60999999999</v>
@@ -1522,7 +1447,7 @@
         <v>06-30</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F48" s="1">
         <v>154975.894</v>
@@ -1543,7 +1468,7 @@
         <v>07-16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1561,7 +1486,7 @@
         <v>08-15</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1579,7 +1504,7 @@
         <v>09-18</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1597,7 +1522,7 @@
         <v>10-15</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1615,7 +1540,7 @@
         <v>11-15</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1633,7 +1558,7 @@
         <v>12-18</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1663,7 +1588,7 @@
         <v>01-16</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1681,7 +1606,7 @@
         <v>02-15</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1699,7 +1624,7 @@
         <v>03-15</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1717,7 +1642,7 @@
         <v>04-18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1735,7 +1660,7 @@
         <v>05-18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1753,7 +1678,7 @@
         <v>06-15</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F63" s="1">
         <v>106286.75</v>
@@ -1774,7 +1699,7 @@
         <v>06-30</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F64" s="1">
         <v>106605.61</v>
@@ -1795,7 +1720,7 @@
         <v>07-18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1813,7 +1738,7 @@
         <v>08-18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1831,7 +1756,7 @@
         <v>09-15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1849,7 +1774,7 @@
         <v>10-18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1867,7 +1792,7 @@
         <v>11-15</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1885,7 +1810,7 @@
         <v>12-16</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1911,7 +1836,7 @@
         <v>01-15</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1929,7 +1854,7 @@
         <v>02-15</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1947,7 +1872,7 @@
         <v>03-15</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1965,7 +1890,7 @@
         <v>04-15</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1983,7 +1908,7 @@
         <v>05-18</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2001,7 +1926,7 @@
         <v>06-15</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F79" s="1">
         <v>64285.8923</v>
@@ -2022,7 +1947,7 @@
         <v>06-30</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F80" s="1">
         <v>64478.75</v>
@@ -2043,7 +1968,7 @@
         <v>07-15</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2061,7 +1986,7 @@
         <v>08-18</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2079,7 +2004,7 @@
         <v>09-12</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2097,7 +2022,7 @@
         <v>10-12</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2115,7 +2040,7 @@
         <v>11-15</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2133,7 +2058,7 @@
         <v>12-16</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/__encodeapk/8个客户.xlsx
+++ b/__encodeapk/8个客户.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/Documents/个人/Project/code/Finance-master-local/__encodeapk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37784540-59B0-AF41-9657-EDC755368324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F812AA1-8D15-114E-B9C7-D03D4A178A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="12700" windowWidth="22200" windowHeight="8940" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15620" yWindow="1940" windowWidth="11820" windowHeight="14720" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (8)" sheetId="8" r:id="rId1"/>
@@ -23,11 +23,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="88">
   <si>
     <t>姓名</t>
   </si>
@@ -170,10 +178,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>晴 27℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>周广芹</t>
   </si>
   <si>
@@ -294,44 +298,28 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>晴 19℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>多云 18℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>多云 22℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小雨 16℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴 19℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴 14℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴 15℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴 18℃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>性别</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>女</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴 18℃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云 16℃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴 20℃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴 13℃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -760,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -817,25 +805,25 @@
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17">
@@ -870,17 +858,17 @@
         <v>48925.8923</v>
       </c>
       <c r="K2" s="13">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-24</v>
+        <v>2020-10-01</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>84</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>9</v>
@@ -889,42 +877,42 @@
         <v>15712917692</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R2" s="15">
         <v>15712917692</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44099</v>
+        <v>44106</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-25</v>
+        <v>2020-10-02</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44100</v>
+        <v>44107</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-03</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -936,14 +924,14 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44101</v>
+        <v>44108</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-04</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -954,16 +942,9 @@
         <v>2020</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="13">
-        <v>44102</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-28</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>87</v>
-      </c>
+      <c r="K6" s="13"/>
+      <c r="L6"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="4">
@@ -980,16 +961,9 @@
         <v>01-21</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="13">
-        <v>44103</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-29</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>86</v>
-      </c>
+      <c r="K7" s="13"/>
+      <c r="L7"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="4">
@@ -1006,16 +980,9 @@
         <v>02-18</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="13">
-        <v>44104</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-30</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="K8" s="13"/>
+      <c r="L8"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="4">
@@ -1032,16 +999,9 @@
         <v>03-16</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="13">
-        <v>44105</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-01</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>88</v>
-      </c>
+      <c r="K9" s="13"/>
+      <c r="L9"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="4">
@@ -1058,16 +1018,9 @@
         <v>04-16</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="13">
-        <v>44106</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-02</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>90</v>
-      </c>
+      <c r="K10" s="13"/>
+      <c r="L10"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="4">
@@ -1084,16 +1037,9 @@
         <v>05-15</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="13">
-        <v>44107</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-03</v>
-      </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
+      <c r="K11" s="13"/>
+      <c r="L11"/>
+      <c r="M11"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="4">
@@ -1110,19 +1056,12 @@
         <v>06-15</v>
       </c>
       <c r="E12" s="1">
-        <v>54154</v>
+        <v>45130</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="13">
-        <v>44108</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-04</v>
-      </c>
-      <c r="M12" t="s">
-        <v>46</v>
-      </c>
+      <c r="K12" s="13"/>
+      <c r="L12"/>
+      <c r="M12"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="8">
@@ -1139,19 +1078,12 @@
         <v>06-30</v>
       </c>
       <c r="E13" s="1">
-        <v>54966.31</v>
+        <v>45932.31</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="13">
-        <v>44109</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-05</v>
-      </c>
-      <c r="M13" t="s">
-        <v>46</v>
-      </c>
+      <c r="K13" s="13"/>
+      <c r="L13"/>
+      <c r="M13"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="4">
@@ -1160,24 +1092,17 @@
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6">
-        <v>4750</v>
+      <c r="C14" s="12">
+        <v>4752</v>
       </c>
       <c r="D14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>07-22</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="13">
-        <v>44110</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-06</v>
-      </c>
-      <c r="M14" t="s">
-        <v>46</v>
-      </c>
+      <c r="K14" s="13"/>
+      <c r="L14"/>
+      <c r="M14"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="4">
@@ -1201,8 +1126,8 @@
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6">
-        <v>4750</v>
+      <c r="C16" s="12">
+        <v>4752</v>
       </c>
       <c r="D16" s="7" t="str">
         <f t="shared" si="1"/>
@@ -1216,8 +1141,8 @@
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6">
-        <v>4750</v>
+      <c r="C17" s="12">
+        <v>4752</v>
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" si="1"/>
@@ -2111,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T88"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -2166,25 +2091,25 @@
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17">
@@ -2219,61 +2144,61 @@
         <v>27478.337</v>
       </c>
       <c r="K2" s="13">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-24</v>
+        <v>2020-10-01</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>84</v>
       </c>
       <c r="N2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="P2" s="15">
         <v>18240150829</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R2" s="15">
         <v>18240150829</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44099</v>
+        <v>44106</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-25</v>
+        <f t="shared" ref="L3:L5" si="0">TEXT(K3,"yyyy-mm-dd")</f>
+        <v>2020-10-02</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44100</v>
+        <v>44107</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-03</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2285,14 +2210,14 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44101</v>
+        <v>44108</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-04</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2303,16 +2228,9 @@
         <v>2020</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="13">
-        <v>44102</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-28</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>87</v>
-      </c>
+      <c r="K6" s="13"/>
+      <c r="L6"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="4">
@@ -2329,16 +2247,9 @@
         <v>01-21</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="13">
-        <v>44103</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-29</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>86</v>
-      </c>
+      <c r="K7" s="13"/>
+      <c r="L7"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="4">
@@ -2355,16 +2266,9 @@
         <v>02-18</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="13">
-        <v>44104</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-30</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="K8" s="13"/>
+      <c r="L8"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="4">
@@ -2381,16 +2285,9 @@
         <v>02-20</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="13">
-        <v>44105</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-01</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>88</v>
-      </c>
+      <c r="K9" s="13"/>
+      <c r="L9"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="4">
@@ -2407,16 +2304,9 @@
         <v>03-16</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="13">
-        <v>44106</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-02</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>90</v>
-      </c>
+      <c r="K10" s="13"/>
+      <c r="L10"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="4">
@@ -2433,16 +2323,9 @@
         <v>04-16</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="13">
-        <v>44107</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-03</v>
-      </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
+      <c r="K11" s="13"/>
+      <c r="L11"/>
+      <c r="M11"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="4">
@@ -2459,16 +2342,9 @@
         <v>05-15</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="13">
-        <v>44108</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-04</v>
-      </c>
-      <c r="M12" t="s">
-        <v>46</v>
-      </c>
+      <c r="K12" s="13"/>
+      <c r="L12"/>
+      <c r="M12"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="4">
@@ -2485,16 +2361,9 @@
         <v>05-21</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="13">
-        <v>44109</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-05</v>
-      </c>
-      <c r="M13" t="s">
-        <v>46</v>
-      </c>
+      <c r="K13" s="13"/>
+      <c r="L13"/>
+      <c r="M13"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="4">
@@ -2514,16 +2383,9 @@
         <v>94439.59</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="13">
-        <v>44110</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-06</v>
-      </c>
-      <c r="M14" t="s">
-        <v>46</v>
-      </c>
+      <c r="K14" s="13"/>
+      <c r="L14"/>
+      <c r="M14"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="8">
@@ -3490,8 +3352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T88"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -3541,25 +3403,25 @@
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17">
@@ -3594,61 +3456,61 @@
         <v>16238.4247</v>
       </c>
       <c r="K2" s="13">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-24</v>
+        <v>2020-10-01</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>84</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>24</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>73</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44099</v>
+        <v>44106</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-25</v>
+        <f t="shared" ref="L3:L5" si="0">TEXT(K3,"yyyy-mm-dd")</f>
+        <v>2020-10-02</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44100</v>
+        <v>44107</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-03</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3660,14 +3522,14 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44101</v>
+        <v>44108</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-04</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3678,16 +3540,9 @@
         <v>2020</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="13">
-        <v>44102</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-28</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>87</v>
-      </c>
+      <c r="K6" s="13"/>
+      <c r="L6"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="4">
@@ -3704,16 +3559,9 @@
         <v>01-10</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="13">
-        <v>44103</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-29</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>86</v>
-      </c>
+      <c r="K7" s="13"/>
+      <c r="L7"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="4">
@@ -3730,16 +3578,9 @@
         <v>02-10</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="13">
-        <v>44104</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-30</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="K8" s="13"/>
+      <c r="L8"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="4">
@@ -3756,16 +3597,9 @@
         <v>03-11</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="13">
-        <v>44105</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-01</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>88</v>
-      </c>
+      <c r="K9" s="13"/>
+      <c r="L9"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="4">
@@ -3782,16 +3616,9 @@
         <v>04-13</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="13">
-        <v>44106</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-02</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>90</v>
-      </c>
+      <c r="K10" s="13"/>
+      <c r="L10"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="4">
@@ -3808,16 +3635,9 @@
         <v>05-11</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="13">
-        <v>44107</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-03</v>
-      </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
+      <c r="K11" s="13"/>
+      <c r="L11"/>
+      <c r="M11"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="4">
@@ -3837,16 +3657,9 @@
         <v>210746.08600000001</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="13">
-        <v>44108</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-04</v>
-      </c>
-      <c r="M12" t="s">
-        <v>46</v>
-      </c>
+      <c r="K12" s="13"/>
+      <c r="L12"/>
+      <c r="M12"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="8">
@@ -3866,16 +3679,9 @@
         <v>213907.277</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="13">
-        <v>44109</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-05</v>
-      </c>
-      <c r="M13" t="s">
-        <v>46</v>
-      </c>
+      <c r="K13" s="13"/>
+      <c r="L13"/>
+      <c r="M13"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="4">
@@ -3892,16 +3698,9 @@
         <v>07-10</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="13">
-        <v>44110</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-06</v>
-      </c>
-      <c r="M14" t="s">
-        <v>46</v>
-      </c>
+      <c r="K14" s="13"/>
+      <c r="L14"/>
+      <c r="M14"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="4">
@@ -4862,8 +4661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -4919,36 +4718,36 @@
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17">
       <c r="A2" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -4972,49 +4771,49 @@
         <v>38052.735800000002</v>
       </c>
       <c r="K2" s="13">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-24</v>
+        <v>2020-10-01</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>84</v>
       </c>
       <c r="N2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="R2" s="15">
         <v>15727301584</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="17">
       <c r="C3" s="14"/>
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44099</v>
+        <v>44106</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-25</v>
+        <f t="shared" ref="L3:L5" si="0">TEXT(K3,"yyyy-mm-dd")</f>
+        <v>2020-10-02</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -5026,14 +4825,14 @@
     <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44100</v>
+        <v>44107</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-03</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -5045,14 +4844,14 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44101</v>
+        <v>44108</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-04</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5063,16 +4862,9 @@
         <v>2020</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="13">
-        <v>44102</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-28</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>87</v>
-      </c>
+      <c r="K6" s="13"/>
+      <c r="L6"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="4">
@@ -5089,16 +4881,9 @@
         <v>01-15</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="13">
-        <v>44103</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-29</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>86</v>
-      </c>
+      <c r="K7" s="13"/>
+      <c r="L7"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="4">
@@ -5115,16 +4900,9 @@
         <v>02-18</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="13">
-        <v>44104</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-30</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="K8" s="13"/>
+      <c r="L8"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="4">
@@ -5141,16 +4919,9 @@
         <v>03-16</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="13">
-        <v>44105</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-01</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>88</v>
-      </c>
+      <c r="K9" s="13"/>
+      <c r="L9"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="4">
@@ -5167,16 +4938,9 @@
         <v>04-16</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="13">
-        <v>44106</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-02</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>90</v>
-      </c>
+      <c r="K10" s="13"/>
+      <c r="L10"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="4">
@@ -5193,16 +4957,9 @@
         <v>05-15</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="13">
-        <v>44107</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-03</v>
-      </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
+      <c r="K11" s="13"/>
+      <c r="L11"/>
+      <c r="M11"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="4">
@@ -5222,16 +4979,9 @@
         <v>50182.99</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="13">
-        <v>44108</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-04</v>
-      </c>
-      <c r="M12" t="s">
-        <v>46</v>
-      </c>
+      <c r="K12" s="13"/>
+      <c r="L12"/>
+      <c r="M12"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="8">
@@ -5251,16 +5001,9 @@
         <v>50935.734799999998</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="13">
-        <v>44109</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-05</v>
-      </c>
-      <c r="M13" t="s">
-        <v>46</v>
-      </c>
+      <c r="K13" s="13"/>
+      <c r="L13"/>
+      <c r="M13"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="4">
@@ -5277,16 +5020,9 @@
         <v>07-16</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="13">
-        <v>44110</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-06</v>
-      </c>
-      <c r="M14" t="s">
-        <v>46</v>
-      </c>
+      <c r="K14" s="13"/>
+      <c r="L14"/>
+      <c r="M14"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="4">
@@ -6205,8 +5941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -6260,25 +5996,25 @@
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17">
@@ -6313,48 +6049,48 @@
         <v>9452.4027999999998</v>
       </c>
       <c r="K2" s="13">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-24</v>
+        <v>2020-10-01</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>84</v>
       </c>
       <c r="N2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="R2" s="15">
         <v>15831629071</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44099</v>
+        <v>44106</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-25</v>
+        <f t="shared" ref="L3:L5" si="0">TEXT(K3,"yyyy-mm-dd")</f>
+        <v>2020-10-02</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -6366,14 +6102,14 @@
     <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44100</v>
+        <v>44107</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-03</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -6385,14 +6121,14 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44101</v>
+        <v>44108</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-04</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6403,16 +6139,9 @@
         <v>2020</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="13">
-        <v>44102</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-28</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>87</v>
-      </c>
+      <c r="K6" s="13"/>
+      <c r="L6"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="4">
@@ -6429,16 +6158,9 @@
         <v>01-18</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="13">
-        <v>44103</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-29</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>86</v>
-      </c>
+      <c r="K7" s="13"/>
+      <c r="L7"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="4">
@@ -6455,16 +6177,9 @@
         <v>02-17</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="13">
-        <v>44104</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-30</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="K8" s="13"/>
+      <c r="L8"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="4">
@@ -6481,16 +6196,9 @@
         <v>02-18</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="13">
-        <v>44105</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-01</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>88</v>
-      </c>
+      <c r="K9" s="13"/>
+      <c r="L9"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="4">
@@ -6507,16 +6215,9 @@
         <v>03-15</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="13">
-        <v>44106</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-02</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>90</v>
-      </c>
+      <c r="K10" s="13"/>
+      <c r="L10"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="4">
@@ -6533,16 +6234,9 @@
         <v>04-16</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="13">
-        <v>44107</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-03</v>
-      </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
+      <c r="K11" s="13"/>
+      <c r="L11"/>
+      <c r="M11"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="4">
@@ -6559,16 +6253,9 @@
         <v>05-15</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="13">
-        <v>44108</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-04</v>
-      </c>
-      <c r="M12" t="s">
-        <v>46</v>
-      </c>
+      <c r="K12" s="13"/>
+      <c r="L12"/>
+      <c r="M12"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="4">
@@ -6585,16 +6272,9 @@
         <v>05-17</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="13">
-        <v>44109</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-05</v>
-      </c>
-      <c r="M13" t="s">
-        <v>46</v>
-      </c>
+      <c r="K13" s="13"/>
+      <c r="L13"/>
+      <c r="M13"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="4">
@@ -6614,16 +6294,9 @@
         <v>59441.47</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="13">
-        <v>44110</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-06</v>
-      </c>
-      <c r="M14" t="s">
-        <v>46</v>
-      </c>
+      <c r="K14" s="13"/>
+      <c r="L14"/>
+      <c r="M14"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="8">
@@ -7605,8 +7278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T2"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -7660,25 +7333,25 @@
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17">
@@ -7713,17 +7386,17 @@
         <v>6356.4825999999994</v>
       </c>
       <c r="K2" s="13">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-24</v>
+        <v>2020-10-01</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>84</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>33</v>
@@ -7732,42 +7405,42 @@
         <v>13718148904</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R2" s="15">
         <v>13718148904</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44099</v>
+        <v>44106</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-25</v>
+        <f t="shared" ref="L3:L5" si="0">TEXT(K3,"yyyy-mm-dd")</f>
+        <v>2020-10-02</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44100</v>
+        <v>44107</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-03</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7779,14 +7452,14 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44101</v>
+        <v>44108</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-04</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7797,16 +7470,9 @@
         <v>2020</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="13">
-        <v>44102</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-28</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>87</v>
-      </c>
+      <c r="K6" s="13"/>
+      <c r="L6"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="4">
@@ -7823,16 +7489,9 @@
         <v>01-16</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="13">
-        <v>44103</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-29</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>86</v>
-      </c>
+      <c r="K7" s="13"/>
+      <c r="L7"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="4">
@@ -7849,16 +7508,9 @@
         <v>01-20</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="13">
-        <v>44104</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-30</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="K8" s="13"/>
+      <c r="L8"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="4">
@@ -7875,16 +7527,9 @@
         <v>02-18</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="13">
-        <v>44105</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-01</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>88</v>
-      </c>
+      <c r="K9" s="13"/>
+      <c r="L9"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="4">
@@ -7901,16 +7546,9 @@
         <v>03-16</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="13">
-        <v>44106</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-02</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>90</v>
-      </c>
+      <c r="K10" s="13"/>
+      <c r="L10"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="4">
@@ -7927,16 +7565,9 @@
         <v>04-16</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="13">
-        <v>44107</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-03</v>
-      </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
+      <c r="K11" s="13"/>
+      <c r="L11"/>
+      <c r="M11"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="4">
@@ -7953,16 +7584,9 @@
         <v>04-21</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="13">
-        <v>44108</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-04</v>
-      </c>
-      <c r="M12" t="s">
-        <v>46</v>
-      </c>
+      <c r="K12" s="13"/>
+      <c r="L12"/>
+      <c r="M12"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="4">
@@ -7979,16 +7603,9 @@
         <v>05-15</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="13">
-        <v>44109</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-05</v>
-      </c>
-      <c r="M13" t="s">
-        <v>46</v>
-      </c>
+      <c r="K13" s="13"/>
+      <c r="L13"/>
+      <c r="M13"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="4">
@@ -8008,16 +7625,9 @@
         <v>145261.55499999999</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="13">
-        <v>44110</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-06</v>
-      </c>
-      <c r="M14" t="s">
-        <v>46</v>
-      </c>
+      <c r="K14" s="13"/>
+      <c r="L14"/>
+      <c r="M14"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="8">
@@ -9058,8 +8668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -9113,25 +8723,25 @@
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17">
@@ -9166,11 +8776,11 @@
         <v>5391.0627999999997</v>
       </c>
       <c r="K2" s="13">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-24</v>
+        <v>2020-10-01</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>84</v>
@@ -9185,42 +8795,42 @@
         <v>13718028714</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R2" s="15">
         <v>13718028714</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44099</v>
+        <v>44106</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-25</v>
+        <f t="shared" ref="L3:L5" si="0">TEXT(K3,"yyyy-mm-dd")</f>
+        <v>2020-10-02</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44100</v>
+        <v>44107</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-03</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -9232,14 +8842,14 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44101</v>
+        <v>44108</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-04</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9250,16 +8860,9 @@
         <v>2020</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="13">
-        <v>44102</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-28</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>87</v>
-      </c>
+      <c r="K6" s="13"/>
+      <c r="L6"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="4">
@@ -9276,16 +8879,9 @@
         <v>01-15</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="13">
-        <v>44103</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-29</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>86</v>
-      </c>
+      <c r="K7" s="13"/>
+      <c r="L7"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="4">
@@ -9302,16 +8898,9 @@
         <v>02-18</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="13">
-        <v>44104</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-30</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="K8" s="13"/>
+      <c r="L8"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="4">
@@ -9328,16 +8917,9 @@
         <v>03-16</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="13">
-        <v>44105</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-01</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>88</v>
-      </c>
+      <c r="K9" s="13"/>
+      <c r="L9"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="4">
@@ -9354,16 +8936,9 @@
         <v>04-16</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="13">
-        <v>44106</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-02</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>90</v>
-      </c>
+      <c r="K10" s="13"/>
+      <c r="L10"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="4">
@@ -9380,16 +8955,9 @@
         <v>05-18</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="13">
-        <v>44107</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-03</v>
-      </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
+      <c r="K11" s="13"/>
+      <c r="L11"/>
+      <c r="M11"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="4">
@@ -9409,16 +8977,9 @@
         <v>154694.97200000001</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="13">
-        <v>44108</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-04</v>
-      </c>
-      <c r="M12" t="s">
-        <v>46</v>
-      </c>
+      <c r="K12" s="13"/>
+      <c r="L12"/>
+      <c r="M12"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="8">
@@ -9438,16 +8999,9 @@
         <v>157015.397</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="13">
-        <v>44109</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-05</v>
-      </c>
-      <c r="M13" t="s">
-        <v>46</v>
-      </c>
+      <c r="K13" s="13"/>
+      <c r="L13"/>
+      <c r="M13"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="4">
@@ -9464,16 +9018,9 @@
         <v>07-15</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="13">
-        <v>44110</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-06</v>
-      </c>
-      <c r="M14" t="s">
-        <v>46</v>
-      </c>
+      <c r="K14" s="13"/>
+      <c r="L14"/>
+      <c r="M14"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="4">
@@ -10374,8 +9921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -10428,25 +9975,25 @@
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17">
@@ -10462,8 +10009,8 @@
       <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1">
-        <v>27900</v>
+      <c r="E2" s="11">
+        <v>26000</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -10471,7 +10018,7 @@
       <c r="G2" s="1">
         <v>12</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="11">
         <v>3120</v>
       </c>
       <c r="I2" s="1">
@@ -10481,61 +10028,61 @@
         <v>7466.4406999999992</v>
       </c>
       <c r="K2" s="13">
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(K2,"yyyy-mm-dd")</f>
-        <v>2020-09-24</v>
+        <v>2020-10-01</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>84</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="R2" s="3">
         <v>15210849691</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
-        <v>44099</v>
+        <v>44106</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
-        <v>2020-09-25</v>
+        <f t="shared" ref="L3:L5" si="0">TEXT(K3,"yyyy-mm-dd")</f>
+        <v>2020-10-02</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
-        <v>44100</v>
+        <v>44107</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-26</v>
+        <v>2020-10-03</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -10547,14 +10094,14 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="13">
-        <v>44101</v>
+        <v>44108</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v>2020-09-27</v>
+        <v>2020-10-04</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -10565,16 +10112,9 @@
         <v>2020</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="13">
-        <v>44102</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-28</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>87</v>
-      </c>
+      <c r="K6" s="13"/>
+      <c r="L6"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="4">
@@ -10591,16 +10131,9 @@
         <v>01-22</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="13">
-        <v>44103</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-29</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>86</v>
-      </c>
+      <c r="K7" s="13"/>
+      <c r="L7"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="4">
@@ -10617,16 +10150,9 @@
         <v>02-18</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="13">
-        <v>44104</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09-30</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="K8" s="13"/>
+      <c r="L8"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="4">
@@ -10643,16 +10169,9 @@
         <v>03-18</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="13">
-        <v>44105</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-01</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>88</v>
-      </c>
+      <c r="K9" s="13"/>
+      <c r="L9"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="4">
@@ -10669,16 +10188,9 @@
         <v>04-16</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="13">
-        <v>44106</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-02</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>90</v>
-      </c>
+      <c r="K10" s="13"/>
+      <c r="L10"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="4">
@@ -10695,16 +10207,9 @@
         <v>05-15</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="13">
-        <v>44107</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-03</v>
-      </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
+      <c r="K11" s="13"/>
+      <c r="L11"/>
+      <c r="M11"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="4">
@@ -10724,16 +10229,9 @@
         <v>272005.50300000003</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="13">
-        <v>44108</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-04</v>
-      </c>
-      <c r="M12" t="s">
-        <v>46</v>
-      </c>
+      <c r="K12" s="13"/>
+      <c r="L12"/>
+      <c r="M12"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="8">
@@ -10753,16 +10251,9 @@
         <v>276085.58600000001</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="13">
-        <v>44109</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-05</v>
-      </c>
-      <c r="M13" t="s">
-        <v>46</v>
-      </c>
+      <c r="K13" s="13"/>
+      <c r="L13"/>
+      <c r="M13"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="4">
@@ -10779,16 +10270,9 @@
         <v>07-16</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="13">
-        <v>44110</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-10-06</v>
-      </c>
-      <c r="M14" t="s">
-        <v>46</v>
-      </c>
+      <c r="K14" s="13"/>
+      <c r="L14"/>
+      <c r="M14"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="4">

--- a/__encodeapk/8个客户.xlsx
+++ b/__encodeapk/8个客户.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE8B72B-BC96-B04E-9B27-DF6818FD287D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB222A2-674E-114A-8251-47C4FA4B0A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="9960" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="庄旭叶" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="64">
   <si>
     <t>姓名</t>
   </si>
@@ -158,6 +158,107 @@
   </si>
   <si>
     <t>晴 11-23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝昵称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>收货地址</t>
+  </si>
+  <si>
+    <t>收货手机号</t>
+  </si>
+  <si>
+    <t>淘宝会员账号</t>
+  </si>
+  <si>
+    <t>庄旭叶</t>
+  </si>
+  <si>
+    <t>北京市石景山区晋元庄路9号北京大学首钢医院</t>
+  </si>
+  <si>
+    <t>tb3394648696</t>
+  </si>
+  <si>
+    <t>养老基数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老单位缴费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老个人缴费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失业基数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失业单位缴费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工伤单位缴费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>失业个人缴费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工伤基数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工伤个人缴费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育基数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育单位缴费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育个人缴费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗基数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗单位缴费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗个人缴费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费区县</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市海淀保险基金管理中心</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +270,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +333,21 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -261,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,6 +430,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -603,7 +731,7 @@
     <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1"/>
+    <col min="5" max="5" width="33.83203125" style="1" customWidth="1"/>
     <col min="6" max="10" width="11" style="1"/>
     <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="11" style="1"/>
@@ -615,7 +743,7 @@
     <col min="22" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16">
+    <row r="1" spans="1:20" ht="17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -651,26 +779,29 @@
       </c>
       <c r="L1"/>
       <c r="M1"/>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="N1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="17">
+    </row>
+    <row r="2" spans="1:20" ht="17">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -711,39 +842,42 @@
       <c r="M2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="3">
-        <v>2121</v>
-      </c>
-      <c r="P2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="O2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="14">
+        <v>15712917692</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="14">
+        <v>15712917692</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="3">
-        <v>3231123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:20">
       <c r="J3" s="11"/>
       <c r="K3" s="13">
         <v>44103</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L14" si="0">TEXT(K3,"yyyy-mm-dd")</f>
+        <f t="shared" ref="L3:L5" si="0">TEXT(K3,"yyyy-mm-dd")</f>
         <v>2020-09-29</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="J4" s="11"/>
       <c r="K4" s="13">
         <v>44104</v>
@@ -756,7 +890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -778,7 +912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -790,7 +924,7 @@
       <c r="L6"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>43851</v>
       </c>
@@ -812,7 +946,7 @@
       <c r="L7"/>
       <c r="M7" s="16"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>43879</v>
       </c>
@@ -834,7 +968,7 @@
       <c r="L8"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>43906</v>
       </c>
@@ -856,7 +990,7 @@
       <c r="L9"/>
       <c r="M9" s="16"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>43937</v>
       </c>
@@ -878,7 +1012,7 @@
       <c r="L10"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>43966</v>
       </c>
@@ -900,7 +1034,7 @@
       <c r="L11"/>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>43997</v>
       </c>
@@ -925,7 +1059,7 @@
       <c r="L12"/>
       <c r="M12" s="16"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="8">
         <v>44012</v>
       </c>
@@ -950,7 +1084,7 @@
       <c r="L13"/>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>44034</v>
       </c>
@@ -972,7 +1106,7 @@
       <c r="L14"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="4">
         <v>44032</v>
       </c>
@@ -990,7 +1124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="4">
         <v>44061</v>
       </c>
@@ -1026,35 +1160,89 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-    </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5">
+        <v>43480</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D21" s="7" t="str">
+        <f t="shared" ref="D21:D30" si="2">TEXT(A21,"mm-dd")</f>
+        <v>01-15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5">
+        <v>43511</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D22" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>02-15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5">
+        <v>43539</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D23" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>03-15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="10">
-        <v>2019</v>
+      <c r="A24" s="5">
+        <v>43570</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="6">
+        <v>4320</v>
+      </c>
+      <c r="D24" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>04-15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5">
-        <v>43480</v>
+        <v>43607</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>15</v>
@@ -1063,8 +1251,8 @@
         <v>4320</v>
       </c>
       <c r="D25" s="7" t="str">
-        <f t="shared" ref="D25:D34" si="2">TEXT(A25,"mm-dd")</f>
-        <v>01-15</v>
+        <f t="shared" si="2"/>
+        <v>05-22</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>31</v>
@@ -1072,7 +1260,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5">
-        <v>43511</v>
+        <v>43634</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>15</v>
@@ -1082,43 +1270,49 @@
       </c>
       <c r="D26" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>02-15</v>
+        <v>06-18</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F26" s="1">
+        <v>206815.894</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="5">
-        <v>43539</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>15</v>
+      <c r="A27" s="9">
+        <v>43646</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C27" s="6">
-        <v>4320</v>
+        <v>3102.2384099999999</v>
       </c>
       <c r="D27" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>03-15</v>
+        <v>06-30</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="F27" s="1">
+        <v>209918.13200000001</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5">
-        <v>43570</v>
+        <v>43662</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="6">
-        <v>4320</v>
+        <v>4512</v>
       </c>
       <c r="D28" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>04-15</v>
+        <v>07-16</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>31</v>
@@ -1126,17 +1320,17 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5">
-        <v>43607</v>
+        <v>43693</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="6">
-        <v>4320</v>
+        <v>4512</v>
       </c>
       <c r="D29" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>05-22</v>
+        <v>08-16</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>31</v>
@@ -1144,49 +1338,46 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5">
-        <v>43634</v>
+        <v>43699</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="6">
-        <v>4320</v>
+        <v>17</v>
+      </c>
+      <c r="C30" s="7">
+        <v>218932.13200000001</v>
       </c>
       <c r="D30" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>06-18</v>
+        <v>08-22</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="1">
-        <v>206815.894</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9">
-        <v>43646</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>16</v>
+      <c r="A31" s="5">
+        <v>43724</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C31" s="6">
-        <v>3102.2384099999999</v>
+        <v>4512</v>
       </c>
       <c r="D31" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>06-30</v>
+        <f>TEXT(A31,"mm-dd")</f>
+        <v>09-16</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F31" s="1">
-        <v>209918.13200000001</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5">
-        <v>43662</v>
+        <v>43753</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>15</v>
@@ -1195,8 +1386,8 @@
         <v>4512</v>
       </c>
       <c r="D32" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>07-16</v>
+        <f>TEXT(A32,"mm-dd")</f>
+        <v>10-15</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>31</v>
@@ -1204,7 +1395,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5">
-        <v>43693</v>
+        <v>43784</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>15</v>
@@ -1213,8 +1404,8 @@
         <v>4512</v>
       </c>
       <c r="D33" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>08-16</v>
+        <f>TEXT(A33,"mm-dd")</f>
+        <v>11-15</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>31</v>
@@ -1222,108 +1413,105 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5">
-        <v>43699</v>
+        <v>43815</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="7">
-        <v>218932.13200000001</v>
+        <v>15</v>
+      </c>
+      <c r="C34" s="6">
+        <v>4512</v>
       </c>
       <c r="D34" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>08-22</v>
+        <f>TEXT(A34,"mm-dd")</f>
+        <v>12-16</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="5">
-        <v>43724</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="6">
-        <v>4512</v>
-      </c>
-      <c r="D35" s="7" t="str">
-        <f>TEXT(A35,"mm-dd")</f>
-        <v>09-16</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="5">
-        <v>43753</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="6">
-        <v>4512</v>
-      </c>
-      <c r="D36" s="7" t="str">
-        <f>TEXT(A36,"mm-dd")</f>
-        <v>10-15</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5">
-        <v>43784</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="6">
-        <v>4512</v>
-      </c>
-      <c r="D37" s="7" t="str">
-        <f>TEXT(A37,"mm-dd")</f>
-        <v>11-15</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>31</v>
+      <c r="A37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="10">
+        <v>2018</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5">
-        <v>43815</v>
+        <v>43115</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="6">
-        <v>4512</v>
+        <v>3840</v>
       </c>
       <c r="D38" s="7" t="str">
-        <f>TEXT(A38,"mm-dd")</f>
-        <v>12-16</v>
+        <f t="shared" ref="D38:D50" si="3">TEXT(A38,"mm-dd")</f>
+        <v>01-15</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5">
+        <v>43153</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3840</v>
+      </c>
+      <c r="D39" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>02-22</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="5">
+        <v>43179</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3840</v>
+      </c>
+      <c r="D40" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>03-20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="10">
-        <v>2018</v>
+      <c r="A41" s="5">
+        <v>43206</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3840</v>
+      </c>
+      <c r="D41" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>04-16</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="5">
-        <v>43115</v>
+        <v>43235</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>15</v>
@@ -1332,8 +1520,8 @@
         <v>3840</v>
       </c>
       <c r="D42" s="7" t="str">
-        <f t="shared" ref="D42:D54" si="3">TEXT(A42,"mm-dd")</f>
-        <v>01-15</v>
+        <f t="shared" si="3"/>
+        <v>05-15</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>31</v>
@@ -1341,7 +1529,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5">
-        <v>43153</v>
+        <v>43266</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>15</v>
@@ -1351,43 +1539,49 @@
       </c>
       <c r="D43" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>02-22</v>
+        <v>06-15</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F43" s="1">
+        <v>152685.60999999999</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="5">
-        <v>43179</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>15</v>
+      <c r="A44" s="9">
+        <v>43281</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C44" s="6">
-        <v>3840</v>
+        <v>2290.28415</v>
       </c>
       <c r="D44" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>03-20</v>
+        <v>06-30</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="F44" s="1">
+        <v>154975.894</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="5">
-        <v>43206</v>
+        <v>43297</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="6">
-        <v>3840</v>
+        <v>4320</v>
       </c>
       <c r="D45" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>04-16</v>
+        <v>07-16</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>31</v>
@@ -1395,17 +1589,17 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5">
-        <v>43235</v>
+        <v>43327</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="6">
-        <v>3840</v>
+        <v>4320</v>
       </c>
       <c r="D46" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>05-15</v>
+        <v>08-15</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>31</v>
@@ -1413,49 +1607,43 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5">
-        <v>43266</v>
+        <v>43361</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="6">
-        <v>3840</v>
+        <v>4320</v>
       </c>
       <c r="D47" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>06-15</v>
+        <v>09-18</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="1">
-        <v>152685.60999999999</v>
-      </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="9">
-        <v>43281</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>16</v>
+      <c r="A48" s="5">
+        <v>43388</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C48" s="6">
-        <v>2290.28415</v>
+        <v>4320</v>
       </c>
       <c r="D48" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>06-30</v>
+        <v>10-15</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F48" s="1">
-        <v>154975.894</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5">
-        <v>43297</v>
+        <v>43419</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>15</v>
@@ -1465,7 +1653,7 @@
       </c>
       <c r="D49" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>07-16</v>
+        <v>11-15</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>31</v>
@@ -1473,7 +1661,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="5">
-        <v>43327</v>
+        <v>43452</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>15</v>
@@ -1483,99 +1671,99 @@
       </c>
       <c r="D50" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>08-15</v>
+        <v>12-18</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="5">
-        <v>43361</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="6">
-        <v>4320</v>
-      </c>
-      <c r="D51" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>09-18</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="5">
-        <v>43388</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="6">
-        <v>4320</v>
-      </c>
-      <c r="D52" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>10-15</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A51" s="7"/>
+      <c r="B51" s="1"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="5">
-        <v>43419</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="6">
-        <v>4320</v>
-      </c>
-      <c r="D53" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>11-15</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>31</v>
+      <c r="A53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="10">
+        <v>2017</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="5">
-        <v>43452</v>
+        <v>42751</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="6">
-        <v>4320</v>
+        <v>3484</v>
       </c>
       <c r="D54" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>12-18</v>
+        <f t="shared" ref="D54:D66" si="4">TEXT(A54,"mm-dd")</f>
+        <v>01-16</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="7"/>
-      <c r="B55" s="1"/>
+      <c r="A55" s="5">
+        <v>42781</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="6">
+        <v>3484</v>
+      </c>
+      <c r="D55" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>02-15</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="5">
+        <v>42809</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="6">
+        <v>3484</v>
+      </c>
+      <c r="D56" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>03-15</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="10">
-        <v>2017</v>
+      <c r="A57" s="5">
+        <v>42843</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="6">
+        <v>3484</v>
+      </c>
+      <c r="D57" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>04-18</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5">
-        <v>42751</v>
+        <v>42873</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>15</v>
@@ -1584,8 +1772,8 @@
         <v>3484</v>
       </c>
       <c r="D58" s="7" t="str">
-        <f t="shared" ref="D58:D70" si="4">TEXT(A58,"mm-dd")</f>
-        <v>01-16</v>
+        <f t="shared" si="4"/>
+        <v>05-18</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>31</v>
@@ -1593,7 +1781,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="5">
-        <v>42781</v>
+        <v>42901</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>15</v>
@@ -1603,43 +1791,49 @@
       </c>
       <c r="D59" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>02-15</v>
+        <v>06-15</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F59" s="1">
+        <v>106286.75</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="5">
-        <v>42809</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>15</v>
+      <c r="A60" s="9">
+        <v>42916</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C60" s="6">
-        <v>3484</v>
+        <v>318.86025000000001</v>
       </c>
       <c r="D60" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>03-15</v>
+        <v>06-30</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="F60" s="1">
+        <v>106605.61</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="5">
-        <v>42843</v>
+        <v>42934</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C61" s="6">
-        <v>3484</v>
+        <v>3840</v>
       </c>
       <c r="D61" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>04-18</v>
+        <v>07-18</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>31</v>
@@ -1647,17 +1841,17 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="5">
-        <v>42873</v>
+        <v>42965</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="6">
-        <v>3484</v>
+        <v>3840</v>
       </c>
       <c r="D62" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>05-18</v>
+        <v>08-18</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>31</v>
@@ -1665,49 +1859,43 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5">
-        <v>42901</v>
+        <v>42993</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="6">
-        <v>3484</v>
+        <v>3840</v>
       </c>
       <c r="D63" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>06-15</v>
+        <v>09-15</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F63" s="1">
-        <v>106286.75</v>
-      </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="9">
-        <v>42916</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>16</v>
+      <c r="A64" s="5">
+        <v>43026</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C64" s="6">
-        <v>318.86025000000001</v>
+        <v>3840</v>
       </c>
       <c r="D64" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>06-30</v>
+        <v>10-18</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F64" s="1">
-        <v>106605.61</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="5">
-        <v>42934</v>
+        <v>43054</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>15</v>
@@ -1717,7 +1905,7 @@
       </c>
       <c r="D65" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>07-18</v>
+        <v>11-15</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>31</v>
@@ -1725,7 +1913,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="5">
-        <v>42965</v>
+        <v>43085</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>15</v>
@@ -1735,95 +1923,95 @@
       </c>
       <c r="D66" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>08-18</v>
+        <v>12-16</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="5">
-        <v>42993</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="6">
-        <v>3840</v>
-      </c>
-      <c r="D67" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>09-15</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="5">
-        <v>43026</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="6">
-        <v>3840</v>
-      </c>
-      <c r="D68" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>10-18</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="5">
-        <v>43054</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="6">
-        <v>3840</v>
-      </c>
-      <c r="D69" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>11-15</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>31</v>
+      <c r="A69" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="10">
+        <v>2016</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="5">
-        <v>43085</v>
+        <v>42384</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="6">
-        <v>3840</v>
+        <v>2560</v>
       </c>
       <c r="D70" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>12-16</v>
+        <f t="shared" ref="D70:D82" si="5">TEXT(A70,"mm-dd")</f>
+        <v>01-15</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="5">
+        <v>42415</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="6">
+        <v>2560</v>
+      </c>
+      <c r="D71" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>02-15</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="5">
+        <v>42444</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="6">
+        <v>2560</v>
+      </c>
+      <c r="D72" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>03-15</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="10">
-        <v>2016</v>
+      <c r="A73" s="5">
+        <v>42475</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="6">
+        <v>2560</v>
+      </c>
+      <c r="D73" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>04-15</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="5">
-        <v>42384</v>
+        <v>42508</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>15</v>
@@ -1832,8 +2020,8 @@
         <v>2560</v>
       </c>
       <c r="D74" s="7" t="str">
-        <f t="shared" ref="D74:D86" si="5">TEXT(A74,"mm-dd")</f>
-        <v>01-15</v>
+        <f t="shared" si="5"/>
+        <v>05-18</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>31</v>
@@ -1841,7 +2029,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="5">
-        <v>42415</v>
+        <v>42536</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>15</v>
@@ -1851,43 +2039,49 @@
       </c>
       <c r="D75" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>02-15</v>
+        <v>06-15</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F75" s="1">
+        <v>64285.8923</v>
+      </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="5">
-        <v>42444</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>15</v>
+      <c r="A76" s="9">
+        <v>42551</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C76" s="6">
-        <v>2560</v>
+        <v>192.857677</v>
       </c>
       <c r="D76" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>03-15</v>
+        <v>06-30</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="F76" s="1">
+        <v>64478.75</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="5">
-        <v>42475</v>
+        <v>42566</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="6">
-        <v>2560</v>
+        <v>3484</v>
       </c>
       <c r="D77" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>04-15</v>
+        <v>07-15</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>31</v>
@@ -1895,17 +2089,17 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="5">
-        <v>42508</v>
+        <v>42600</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C78" s="6">
-        <v>2560</v>
+        <v>3484</v>
       </c>
       <c r="D78" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>05-18</v>
+        <v>08-18</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>31</v>
@@ -1913,49 +2107,43 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="5">
-        <v>42536</v>
+        <v>42625</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C79" s="6">
-        <v>2560</v>
+        <v>3484</v>
       </c>
       <c r="D79" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>06-15</v>
+        <v>09-12</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F79" s="1">
-        <v>64285.8923</v>
-      </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="9">
-        <v>42551</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>16</v>
+      <c r="A80" s="5">
+        <v>42655</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C80" s="6">
-        <v>192.857677</v>
+        <v>3484</v>
       </c>
       <c r="D80" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>06-30</v>
+        <v>10-12</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F80" s="1">
-        <v>64478.75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="5">
-        <v>42566</v>
+        <v>42689</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>15</v>
@@ -1965,15 +2153,15 @@
       </c>
       <c r="D81" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>07-15</v>
+        <v>11-15</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:20">
       <c r="A82" s="5">
-        <v>42600</v>
+        <v>42720</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>15</v>
@@ -1983,82 +2171,835 @@
       </c>
       <c r="D82" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>08-18</v>
+        <v>12-16</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="5">
-        <v>42625</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D83" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>09-12</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="5">
-        <v>42655</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D84" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>10-12</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="5">
-        <v>42689</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D85" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>11-15</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="5">
-        <v>42720</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="6">
-        <v>3484</v>
-      </c>
-      <c r="D86" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>12-16</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>31</v>
+    <row r="88" spans="1:20" ht="16">
+      <c r="A88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="17">
+      <c r="A89" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2121</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3231123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T92" s="2"/>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" s="4">
+        <v>43851</v>
+      </c>
+      <c r="B94" s="7" t="str">
+        <f>TEXT(A94,"yyyy-mm")</f>
+        <v>2020-01</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F94" s="7">
+        <v>3233</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H94" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I94" s="7">
+        <v>144</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L94" s="7">
+        <v>50</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0</v>
+      </c>
+      <c r="N94" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O94" s="7">
+        <v>0</v>
+      </c>
+      <c r="P94" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R94" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S94" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95" s="4">
+        <v>43879</v>
+      </c>
+      <c r="B95" s="7" t="str">
+        <f t="shared" ref="B95:B105" si="6">TEXT(A95,"yyyy-mm")</f>
+        <v>2020-02</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E95" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F95" s="7">
+        <v>3233</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H95" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I95" s="7">
+        <v>144</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L95" s="7">
+        <v>50</v>
+      </c>
+      <c r="M95" s="1">
+        <v>0</v>
+      </c>
+      <c r="N95" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O95" s="7">
+        <v>0</v>
+      </c>
+      <c r="P95" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R95" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S95" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96" s="4">
+        <v>43906</v>
+      </c>
+      <c r="B96" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-03</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F96" s="7">
+        <v>3233</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H96" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I96" s="7">
+        <v>144</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L96" s="7">
+        <v>50</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0</v>
+      </c>
+      <c r="N96" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O96" s="7">
+        <v>0</v>
+      </c>
+      <c r="P96" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R96" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S96" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" s="4">
+        <v>43937</v>
+      </c>
+      <c r="B97" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-04</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F97" s="7">
+        <v>3233</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H97" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I97" s="7">
+        <v>144</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L97" s="7">
+        <v>50</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0</v>
+      </c>
+      <c r="N97" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O97" s="7">
+        <v>0</v>
+      </c>
+      <c r="P97" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R97" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S97" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="4">
+        <v>43966</v>
+      </c>
+      <c r="B98" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-05</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F98" s="7">
+        <v>3233</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H98" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I98" s="7">
+        <v>144</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L98" s="7">
+        <v>50</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O98" s="7">
+        <v>0</v>
+      </c>
+      <c r="P98" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R98" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S98" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="4">
+        <v>43997</v>
+      </c>
+      <c r="B99" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-06</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F99" s="7">
+        <v>3233</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H99" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I99" s="7">
+        <v>144</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L99" s="7">
+        <v>50</v>
+      </c>
+      <c r="M99" s="1">
+        <v>0</v>
+      </c>
+      <c r="N99" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O99" s="7">
+        <v>0</v>
+      </c>
+      <c r="P99" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R99" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S99" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="4">
+        <v>44032</v>
+      </c>
+      <c r="B100" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-07</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F100" s="7">
+        <v>3233</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H100" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I100" s="7">
+        <v>144</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L100" s="7">
+        <v>50</v>
+      </c>
+      <c r="M100" s="1">
+        <v>0</v>
+      </c>
+      <c r="N100" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O100" s="7">
+        <v>0</v>
+      </c>
+      <c r="P100" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R100" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S100" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="4">
+        <v>44061</v>
+      </c>
+      <c r="B101" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-08</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F101" s="7">
+        <v>3233</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H101" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I101" s="7">
+        <v>144</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L101" s="7">
+        <v>50</v>
+      </c>
+      <c r="M101" s="1">
+        <v>0</v>
+      </c>
+      <c r="N101" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O101" s="7">
+        <v>0</v>
+      </c>
+      <c r="P101" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R101" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S101" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="4">
+        <v>44090</v>
+      </c>
+      <c r="B102" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-09</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E102" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F102" s="7">
+        <v>3233</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H102" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I102" s="7">
+        <v>144</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L102" s="7">
+        <v>50</v>
+      </c>
+      <c r="M102" s="1">
+        <v>0</v>
+      </c>
+      <c r="N102" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O102" s="7">
+        <v>0</v>
+      </c>
+      <c r="P102" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R102" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S102" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="4">
+        <v>44120</v>
+      </c>
+      <c r="B103" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-10</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E103" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F103" s="7">
+        <v>3233</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H103" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I103" s="7">
+        <v>144</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0</v>
+      </c>
+      <c r="K103" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L103" s="7">
+        <v>50</v>
+      </c>
+      <c r="M103" s="1">
+        <v>0</v>
+      </c>
+      <c r="N103" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O103" s="7">
+        <v>0</v>
+      </c>
+      <c r="P103" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R103" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S103" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" s="4">
+        <v>44151</v>
+      </c>
+      <c r="B104" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-11</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E104" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F104" s="7">
+        <v>3233</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H104" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I104" s="7">
+        <v>144</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L104" s="7">
+        <v>50</v>
+      </c>
+      <c r="M104" s="1">
+        <v>0</v>
+      </c>
+      <c r="N104" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O104" s="7">
+        <v>0</v>
+      </c>
+      <c r="P104" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R104" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S104" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" s="4">
+        <v>44181</v>
+      </c>
+      <c r="B105" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>2020-12</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E105" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F105" s="7">
+        <v>3233</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H105" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I105" s="7">
+        <v>144</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+      <c r="K105" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L105" s="7">
+        <v>50</v>
+      </c>
+      <c r="M105" s="1">
+        <v>0</v>
+      </c>
+      <c r="N105" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O105" s="7">
+        <v>0</v>
+      </c>
+      <c r="P105" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R105" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S105" s="21">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/__encodeapk/8个客户.xlsx
+++ b/__encodeapk/8个客户.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB222A2-674E-114A-8251-47C4FA4B0A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B215B0-B8BC-0646-8F58-0CDA24E2E1CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7900" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="庄旭叶" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="66">
   <si>
     <t>姓名</t>
   </si>
@@ -259,6 +259,14 @@
   </si>
   <si>
     <t>北京市海淀保险基金管理中心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -719,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T105"/>
+  <dimension ref="A1:T135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -2357,10 +2365,10 @@
         <v>63</v>
       </c>
       <c r="E95" s="6">
-        <v>30000</v>
+        <v>30001</v>
       </c>
       <c r="F95" s="7">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="G95" s="1">
         <v>1400</v>
@@ -2417,10 +2425,10 @@
         <v>63</v>
       </c>
       <c r="E96" s="6">
-        <v>30000</v>
+        <v>30002</v>
       </c>
       <c r="F96" s="7">
-        <v>3233</v>
+        <v>3235</v>
       </c>
       <c r="G96" s="1">
         <v>1400</v>
@@ -2477,10 +2485,10 @@
         <v>63</v>
       </c>
       <c r="E97" s="6">
-        <v>30000</v>
+        <v>30003</v>
       </c>
       <c r="F97" s="7">
-        <v>3233</v>
+        <v>3236</v>
       </c>
       <c r="G97" s="1">
         <v>1400</v>
@@ -2494,15 +2502,8 @@
       <c r="J97" s="1">
         <v>0</v>
       </c>
-      <c r="K97" s="6">
-        <v>30000</v>
-      </c>
-      <c r="L97" s="7">
-        <v>50</v>
-      </c>
-      <c r="M97" s="1">
-        <v>0</v>
-      </c>
+      <c r="K97" s="6"/>
+      <c r="L97" s="7"/>
       <c r="N97" s="6">
         <v>30000</v>
       </c>
@@ -2537,10 +2538,10 @@
         <v>63</v>
       </c>
       <c r="E98" s="6">
-        <v>30000</v>
+        <v>30004</v>
       </c>
       <c r="F98" s="7">
-        <v>3233</v>
+        <v>3237</v>
       </c>
       <c r="G98" s="1">
         <v>1400</v>
@@ -2554,15 +2555,8 @@
       <c r="J98" s="1">
         <v>0</v>
       </c>
-      <c r="K98" s="6">
-        <v>30000</v>
-      </c>
-      <c r="L98" s="7">
-        <v>50</v>
-      </c>
-      <c r="M98" s="1">
-        <v>0</v>
-      </c>
+      <c r="K98" s="6"/>
+      <c r="L98" s="7"/>
       <c r="N98" s="6">
         <v>30000</v>
       </c>
@@ -2597,10 +2591,10 @@
         <v>63</v>
       </c>
       <c r="E99" s="6">
-        <v>30000</v>
+        <v>30005</v>
       </c>
       <c r="F99" s="7">
-        <v>3233</v>
+        <v>3238</v>
       </c>
       <c r="G99" s="1">
         <v>1400</v>
@@ -2614,15 +2608,8 @@
       <c r="J99" s="1">
         <v>0</v>
       </c>
-      <c r="K99" s="6">
-        <v>30000</v>
-      </c>
-      <c r="L99" s="7">
-        <v>50</v>
-      </c>
-      <c r="M99" s="1">
-        <v>0</v>
-      </c>
+      <c r="K99" s="6"/>
+      <c r="L99" s="7"/>
       <c r="N99" s="6">
         <v>30000</v>
       </c>
@@ -2657,10 +2644,10 @@
         <v>63</v>
       </c>
       <c r="E100" s="6">
-        <v>30000</v>
+        <v>30006</v>
       </c>
       <c r="F100" s="7">
-        <v>3233</v>
+        <v>3239</v>
       </c>
       <c r="G100" s="1">
         <v>1400</v>
@@ -2674,15 +2661,8 @@
       <c r="J100" s="1">
         <v>0</v>
       </c>
-      <c r="K100" s="6">
-        <v>30000</v>
-      </c>
-      <c r="L100" s="7">
-        <v>50</v>
-      </c>
-      <c r="M100" s="1">
-        <v>0</v>
-      </c>
+      <c r="K100" s="6"/>
+      <c r="L100" s="7"/>
       <c r="N100" s="6">
         <v>30000</v>
       </c>
@@ -2717,10 +2697,10 @@
         <v>63</v>
       </c>
       <c r="E101" s="6">
-        <v>30000</v>
+        <v>30007</v>
       </c>
       <c r="F101" s="7">
-        <v>3233</v>
+        <v>3240</v>
       </c>
       <c r="G101" s="1">
         <v>1400</v>
@@ -2734,15 +2714,8 @@
       <c r="J101" s="1">
         <v>0</v>
       </c>
-      <c r="K101" s="6">
-        <v>30000</v>
-      </c>
-      <c r="L101" s="7">
-        <v>50</v>
-      </c>
-      <c r="M101" s="1">
-        <v>0</v>
-      </c>
+      <c r="K101" s="6"/>
+      <c r="L101" s="7"/>
       <c r="N101" s="6">
         <v>30000</v>
       </c>
@@ -2777,10 +2750,10 @@
         <v>63</v>
       </c>
       <c r="E102" s="6">
-        <v>30000</v>
+        <v>30008</v>
       </c>
       <c r="F102" s="7">
-        <v>3233</v>
+        <v>3241</v>
       </c>
       <c r="G102" s="1">
         <v>1400</v>
@@ -2837,10 +2810,10 @@
         <v>63</v>
       </c>
       <c r="E103" s="6">
-        <v>30000</v>
+        <v>30009</v>
       </c>
       <c r="F103" s="7">
-        <v>3233</v>
+        <v>3242</v>
       </c>
       <c r="G103" s="1">
         <v>1400</v>
@@ -2863,15 +2836,8 @@
       <c r="M103" s="1">
         <v>0</v>
       </c>
-      <c r="N103" s="6">
-        <v>30000</v>
-      </c>
-      <c r="O103" s="7">
-        <v>0</v>
-      </c>
-      <c r="P103" s="1">
-        <v>0</v>
-      </c>
+      <c r="N103" s="6"/>
+      <c r="O103" s="7"/>
       <c r="Q103" s="19">
         <v>30000</v>
       </c>
@@ -2897,10 +2863,10 @@
         <v>63</v>
       </c>
       <c r="E104" s="6">
-        <v>30000</v>
+        <v>30010</v>
       </c>
       <c r="F104" s="7">
-        <v>3233</v>
+        <v>3243</v>
       </c>
       <c r="G104" s="1">
         <v>1400</v>
@@ -2923,15 +2889,8 @@
       <c r="M104" s="1">
         <v>0</v>
       </c>
-      <c r="N104" s="6">
-        <v>30000</v>
-      </c>
-      <c r="O104" s="7">
-        <v>0</v>
-      </c>
-      <c r="P104" s="1">
-        <v>0</v>
-      </c>
+      <c r="N104" s="6"/>
+      <c r="O104" s="7"/>
       <c r="Q104" s="19">
         <v>30000</v>
       </c>
@@ -2957,10 +2916,10 @@
         <v>63</v>
       </c>
       <c r="E105" s="6">
-        <v>30000</v>
+        <v>30011</v>
       </c>
       <c r="F105" s="7">
-        <v>3233</v>
+        <v>3244</v>
       </c>
       <c r="G105" s="1">
         <v>1400</v>
@@ -2983,15 +2942,8 @@
       <c r="M105" s="1">
         <v>0</v>
       </c>
-      <c r="N105" s="6">
-        <v>30000</v>
-      </c>
-      <c r="O105" s="7">
-        <v>0</v>
-      </c>
-      <c r="P105" s="1">
-        <v>0</v>
-      </c>
+      <c r="N105" s="6"/>
+      <c r="O105" s="7"/>
       <c r="Q105" s="19">
         <v>30000</v>
       </c>
@@ -2999,6 +2951,1350 @@
         <v>2300</v>
       </c>
       <c r="S105" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="A109" s="4">
+        <v>43486</v>
+      </c>
+      <c r="B109" s="7" t="str">
+        <f>TEXT(A109,"yyyy-mm")</f>
+        <v>2019-01</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E109" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F109" s="7">
+        <v>3233</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H109" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I109" s="7">
+        <v>144</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L109" s="7">
+        <v>50</v>
+      </c>
+      <c r="M109" s="1">
+        <v>0</v>
+      </c>
+      <c r="N109" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O109" s="7">
+        <v>0</v>
+      </c>
+      <c r="P109" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R109" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S109" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="A110" s="4">
+        <v>43517</v>
+      </c>
+      <c r="B110" s="7" t="str">
+        <f t="shared" ref="B110:B120" si="7">TEXT(A110,"yyyy-mm")</f>
+        <v>2019-02</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E110" s="6">
+        <v>20001</v>
+      </c>
+      <c r="F110" s="7">
+        <v>3234</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H110" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I110" s="7">
+        <v>144</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L110" s="7">
+        <v>50</v>
+      </c>
+      <c r="M110" s="1">
+        <v>0</v>
+      </c>
+      <c r="N110" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O110" s="7">
+        <v>0</v>
+      </c>
+      <c r="P110" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R110" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S110" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" s="4">
+        <v>43545</v>
+      </c>
+      <c r="B111" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-03</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E111" s="6">
+        <v>20002</v>
+      </c>
+      <c r="F111" s="7">
+        <v>3235</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H111" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I111" s="7">
+        <v>144</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L111" s="7">
+        <v>50</v>
+      </c>
+      <c r="M111" s="1">
+        <v>0</v>
+      </c>
+      <c r="N111" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O111" s="7">
+        <v>0</v>
+      </c>
+      <c r="P111" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R111" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S111" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" s="4">
+        <v>43576</v>
+      </c>
+      <c r="B112" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-04</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E112" s="6">
+        <v>20003</v>
+      </c>
+      <c r="F112" s="7">
+        <v>3236</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H112" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I112" s="7">
+        <v>144</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="6"/>
+      <c r="L112" s="7"/>
+      <c r="N112" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O112" s="7">
+        <v>0</v>
+      </c>
+      <c r="P112" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R112" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S112" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" s="4">
+        <v>43606</v>
+      </c>
+      <c r="B113" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-05</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E113" s="6">
+        <v>20004</v>
+      </c>
+      <c r="F113" s="7">
+        <v>3237</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H113" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I113" s="7">
+        <v>144</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="6"/>
+      <c r="L113" s="7"/>
+      <c r="N113" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O113" s="7">
+        <v>0</v>
+      </c>
+      <c r="P113" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R113" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S113" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" s="4">
+        <v>43637</v>
+      </c>
+      <c r="B114" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-06</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114" s="6">
+        <v>20005</v>
+      </c>
+      <c r="F114" s="7">
+        <v>3238</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H114" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I114" s="7">
+        <v>144</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="6"/>
+      <c r="L114" s="7"/>
+      <c r="N114" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O114" s="7">
+        <v>0</v>
+      </c>
+      <c r="P114" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R114" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S114" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" s="4">
+        <v>43667</v>
+      </c>
+      <c r="B115" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-07</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E115" s="6">
+        <v>20006</v>
+      </c>
+      <c r="F115" s="7">
+        <v>3239</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H115" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I115" s="7">
+        <v>144</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" s="6"/>
+      <c r="L115" s="7"/>
+      <c r="N115" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O115" s="7">
+        <v>0</v>
+      </c>
+      <c r="P115" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R115" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S115" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="4">
+        <v>43698</v>
+      </c>
+      <c r="B116" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-08</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E116" s="6">
+        <v>20007</v>
+      </c>
+      <c r="F116" s="7">
+        <v>3240</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H116" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I116" s="7">
+        <v>144</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+      <c r="K116" s="6"/>
+      <c r="L116" s="7"/>
+      <c r="N116" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O116" s="7">
+        <v>0</v>
+      </c>
+      <c r="P116" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R116" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S116" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="4">
+        <v>43729</v>
+      </c>
+      <c r="B117" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-09</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E117" s="6">
+        <v>20008</v>
+      </c>
+      <c r="F117" s="7">
+        <v>3241</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H117" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I117" s="7">
+        <v>144</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0</v>
+      </c>
+      <c r="K117" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L117" s="7">
+        <v>50</v>
+      </c>
+      <c r="M117" s="1">
+        <v>0</v>
+      </c>
+      <c r="N117" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O117" s="7">
+        <v>0</v>
+      </c>
+      <c r="P117" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R117" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S117" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" s="4">
+        <v>43759</v>
+      </c>
+      <c r="B118" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-10</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E118" s="6">
+        <v>20009</v>
+      </c>
+      <c r="F118" s="7">
+        <v>3242</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H118" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I118" s="7">
+        <v>144</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L118" s="7">
+        <v>50</v>
+      </c>
+      <c r="M118" s="1">
+        <v>0</v>
+      </c>
+      <c r="N118" s="6"/>
+      <c r="O118" s="7"/>
+      <c r="Q118" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R118" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S118" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" s="4">
+        <v>43790</v>
+      </c>
+      <c r="B119" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-11</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E119" s="6">
+        <v>20010</v>
+      </c>
+      <c r="F119" s="7">
+        <v>3243</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H119" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I119" s="7">
+        <v>144</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L119" s="7">
+        <v>50</v>
+      </c>
+      <c r="M119" s="1">
+        <v>0</v>
+      </c>
+      <c r="N119" s="6"/>
+      <c r="O119" s="7"/>
+      <c r="Q119" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R119" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S119" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" s="4">
+        <v>43820</v>
+      </c>
+      <c r="B120" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-12</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E120" s="6">
+        <v>20011</v>
+      </c>
+      <c r="F120" s="7">
+        <v>3244</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H120" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I120" s="7">
+        <v>144</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L120" s="7">
+        <v>50</v>
+      </c>
+      <c r="M120" s="1">
+        <v>0</v>
+      </c>
+      <c r="N120" s="6"/>
+      <c r="O120" s="7"/>
+      <c r="Q120" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R120" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S120" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="A123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="A124" s="4">
+        <v>43121</v>
+      </c>
+      <c r="B124" s="7" t="str">
+        <f>TEXT(A124,"yyyy-mm")</f>
+        <v>2018-01</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E124" s="6">
+        <v>18000</v>
+      </c>
+      <c r="F124" s="7">
+        <v>3233</v>
+      </c>
+      <c r="G124" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H124" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I124" s="7">
+        <v>144</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L124" s="7">
+        <v>50</v>
+      </c>
+      <c r="M124" s="1">
+        <v>0</v>
+      </c>
+      <c r="N124" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O124" s="7">
+        <v>0</v>
+      </c>
+      <c r="P124" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R124" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S124" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="A125" s="4">
+        <v>43152</v>
+      </c>
+      <c r="B125" s="7" t="str">
+        <f t="shared" ref="B125:B135" si="8">TEXT(A125,"yyyy-mm")</f>
+        <v>2018-02</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E125" s="6">
+        <v>18001</v>
+      </c>
+      <c r="F125" s="7">
+        <v>3234</v>
+      </c>
+      <c r="G125" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H125" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I125" s="7">
+        <v>144</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0</v>
+      </c>
+      <c r="K125" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L125" s="7">
+        <v>50</v>
+      </c>
+      <c r="M125" s="1">
+        <v>0</v>
+      </c>
+      <c r="N125" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O125" s="7">
+        <v>0</v>
+      </c>
+      <c r="P125" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R125" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S125" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126" s="4">
+        <v>43180</v>
+      </c>
+      <c r="B126" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-03</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E126" s="6">
+        <v>18002</v>
+      </c>
+      <c r="F126" s="7">
+        <v>3235</v>
+      </c>
+      <c r="G126" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H126" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I126" s="7">
+        <v>144</v>
+      </c>
+      <c r="J126" s="1">
+        <v>0</v>
+      </c>
+      <c r="K126" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L126" s="7">
+        <v>50</v>
+      </c>
+      <c r="M126" s="1">
+        <v>0</v>
+      </c>
+      <c r="N126" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O126" s="7">
+        <v>0</v>
+      </c>
+      <c r="P126" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R126" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S126" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="A127" s="4">
+        <v>43211</v>
+      </c>
+      <c r="B127" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-04</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E127" s="6">
+        <v>18003</v>
+      </c>
+      <c r="F127" s="7">
+        <v>3236</v>
+      </c>
+      <c r="G127" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H127" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I127" s="7">
+        <v>144</v>
+      </c>
+      <c r="J127" s="1">
+        <v>0</v>
+      </c>
+      <c r="K127" s="6"/>
+      <c r="L127" s="7"/>
+      <c r="N127" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O127" s="7">
+        <v>0</v>
+      </c>
+      <c r="P127" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R127" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S127" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
+      <c r="A128" s="4">
+        <v>43241</v>
+      </c>
+      <c r="B128" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-05</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E128" s="6">
+        <v>18004</v>
+      </c>
+      <c r="F128" s="7">
+        <v>3237</v>
+      </c>
+      <c r="G128" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H128" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I128" s="7">
+        <v>144</v>
+      </c>
+      <c r="J128" s="1">
+        <v>0</v>
+      </c>
+      <c r="K128" s="6"/>
+      <c r="L128" s="7"/>
+      <c r="N128" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O128" s="7">
+        <v>0</v>
+      </c>
+      <c r="P128" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R128" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S128" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="4">
+        <v>43272</v>
+      </c>
+      <c r="B129" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-06</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E129" s="6">
+        <v>18005</v>
+      </c>
+      <c r="F129" s="7">
+        <v>3238</v>
+      </c>
+      <c r="G129" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H129" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I129" s="7">
+        <v>144</v>
+      </c>
+      <c r="J129" s="1">
+        <v>0</v>
+      </c>
+      <c r="K129" s="6"/>
+      <c r="L129" s="7"/>
+      <c r="N129" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O129" s="7">
+        <v>0</v>
+      </c>
+      <c r="P129" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R129" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S129" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="A130" s="4">
+        <v>43302</v>
+      </c>
+      <c r="B130" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-07</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E130" s="6">
+        <v>18006</v>
+      </c>
+      <c r="F130" s="7">
+        <v>3239</v>
+      </c>
+      <c r="G130" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H130" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I130" s="7">
+        <v>144</v>
+      </c>
+      <c r="J130" s="1">
+        <v>0</v>
+      </c>
+      <c r="K130" s="6"/>
+      <c r="L130" s="7"/>
+      <c r="N130" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O130" s="7">
+        <v>0</v>
+      </c>
+      <c r="P130" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R130" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S130" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" s="4">
+        <v>43333</v>
+      </c>
+      <c r="B131" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-08</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E131" s="6">
+        <v>18007</v>
+      </c>
+      <c r="F131" s="7">
+        <v>3240</v>
+      </c>
+      <c r="G131" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H131" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I131" s="7">
+        <v>144</v>
+      </c>
+      <c r="J131" s="1">
+        <v>0</v>
+      </c>
+      <c r="K131" s="6"/>
+      <c r="L131" s="7"/>
+      <c r="N131" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O131" s="7">
+        <v>0</v>
+      </c>
+      <c r="P131" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R131" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S131" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
+      <c r="A132" s="4">
+        <v>43364</v>
+      </c>
+      <c r="B132" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-09</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E132" s="6">
+        <v>18008</v>
+      </c>
+      <c r="F132" s="7">
+        <v>3241</v>
+      </c>
+      <c r="G132" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H132" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I132" s="7">
+        <v>144</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0</v>
+      </c>
+      <c r="K132" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L132" s="7">
+        <v>50</v>
+      </c>
+      <c r="M132" s="1">
+        <v>0</v>
+      </c>
+      <c r="N132" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O132" s="7">
+        <v>0</v>
+      </c>
+      <c r="P132" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R132" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S132" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="A133" s="4">
+        <v>43394</v>
+      </c>
+      <c r="B133" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-10</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E133" s="6">
+        <v>18009</v>
+      </c>
+      <c r="F133" s="7">
+        <v>3242</v>
+      </c>
+      <c r="G133" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H133" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I133" s="7">
+        <v>144</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+      <c r="K133" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L133" s="7">
+        <v>50</v>
+      </c>
+      <c r="M133" s="1">
+        <v>0</v>
+      </c>
+      <c r="N133" s="6"/>
+      <c r="O133" s="7"/>
+      <c r="Q133" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R133" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S133" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" s="4">
+        <v>43425</v>
+      </c>
+      <c r="B134" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-11</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E134" s="6">
+        <v>18010</v>
+      </c>
+      <c r="F134" s="7">
+        <v>3243</v>
+      </c>
+      <c r="G134" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H134" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I134" s="7">
+        <v>144</v>
+      </c>
+      <c r="J134" s="1">
+        <v>0</v>
+      </c>
+      <c r="K134" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L134" s="7">
+        <v>50</v>
+      </c>
+      <c r="M134" s="1">
+        <v>0</v>
+      </c>
+      <c r="N134" s="6"/>
+      <c r="O134" s="7"/>
+      <c r="Q134" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R134" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S134" s="21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="A135" s="4">
+        <v>43455</v>
+      </c>
+      <c r="B135" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>2018-12</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E135" s="6">
+        <v>18011</v>
+      </c>
+      <c r="F135" s="7">
+        <v>3244</v>
+      </c>
+      <c r="G135" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H135" s="6">
+        <v>30000</v>
+      </c>
+      <c r="I135" s="7">
+        <v>144</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0</v>
+      </c>
+      <c r="K135" s="6">
+        <v>30000</v>
+      </c>
+      <c r="L135" s="7">
+        <v>50</v>
+      </c>
+      <c r="M135" s="1">
+        <v>0</v>
+      </c>
+      <c r="N135" s="6"/>
+      <c r="O135" s="7"/>
+      <c r="Q135" s="19">
+        <v>30000</v>
+      </c>
+      <c r="R135" s="20">
+        <v>2300</v>
+      </c>
+      <c r="S135" s="21">
         <v>400</v>
       </c>
     </row>

--- a/__encodeapk/8个客户.xlsx
+++ b/__encodeapk/8个客户.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B215B0-B8BC-0646-8F58-0CDA24E2E1CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6383E57F-240B-2249-9BB2-CBDA33B5E036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7900" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="80">
   <si>
     <t>姓名</t>
   </si>
@@ -267,6 +267,56 @@
   </si>
   <si>
     <t>2019</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉族</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参保单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参保区县</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费人员类别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗参保人员类别</t>
+  </si>
+  <si>
+    <t>外埠农村动力</t>
+  </si>
+  <si>
+    <t>北京市海淀保险基金管理中心</t>
+  </si>
+  <si>
+    <t>腾讯科技有限公司</t>
+  </si>
+  <si>
+    <t>在职职工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老保险实际缴费年限</t>
+  </si>
+  <si>
+    <t>4年7个月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗保险实际缴费年限</t>
+  </si>
+  <si>
+    <t>缴费基数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +328,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +406,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -385,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,6 +506,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="D79" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -2196,13 +2255,34 @@
         <v>27</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J88" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="K88" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L88" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="17">
@@ -2216,13 +2296,34 @@
         <v>20</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E89" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F89" s="3">
         <v>3231123</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I89" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M89" s="1">
+        <v>30000</v>
       </c>
     </row>
     <row r="92" spans="1:20">
